--- a/Assets/06.Table/SnowManAtten.xlsx
+++ b/Assets/06.Table/SnowManAtten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3F347-2618-4071-9B5E-02F07A263B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5748961A-64C5-4D83-82E2-7F2A2055F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SnowManAtten" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,12 +506,26 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
+        <f>IF($C2=5,10000000,
+IF($C2=30,1000,
+IF($C2=20,1000,
+IF($C2=46,1250,
+IF($C2=73,200,
+IF($C2=88,100,
+0))))))</f>
         <v>10000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
+        <f>IF($C2=5,10000000,
+IF($C2=30,1000,
+IF($C2=20,1000,
+IF($C2=46,1250,
+IF($C2=73,200,
+IF($C2=88,100,
+0))))))</f>
         <v>10000000</v>
       </c>
     </row>
@@ -526,12 +540,26 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" ref="D3:D66" si="0">IF($C3=5,10000000,
+IF($C3=30,1000,
+IF($C3=20,1000,
+IF($C3=46,1250,
+IF($C3=73,200,
+IF($C3=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="1">IF($C3=5,10000000,
+IF($C3=30,1000,
+IF($C3=20,1000,
+IF($C3=46,1250,
+IF($C3=73,200,
+IF($C3=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
     </row>
@@ -546,12 +574,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -566,12 +596,14 @@
         <v>46</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E5" s="1">
         <v>46</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -585,14 +617,16 @@
       <c r="C6" s="2">
         <v>73</v>
       </c>
-      <c r="D6" s="2">
-        <v>150</v>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E6" s="2">
         <v>73</v>
       </c>
-      <c r="F6" s="2">
-        <v>150</v>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -606,13 +640,15 @@
         <v>88</v>
       </c>
       <c r="D7" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
         <v>88</v>
       </c>
       <c r="F7" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -626,12 +662,14 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -646,12 +684,14 @@
         <v>30</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E9" s="1">
         <v>30</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -666,12 +706,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -686,12 +728,14 @@
         <v>46</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E11" s="1">
         <v>46</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -705,14 +749,16 @@
       <c r="C12" s="2">
         <v>73</v>
       </c>
-      <c r="D12" s="2">
-        <v>150</v>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E12" s="2">
         <v>73</v>
       </c>
-      <c r="F12" s="2">
-        <v>150</v>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,13 +772,15 @@
         <v>88</v>
       </c>
       <c r="D13" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E13" s="1">
         <v>88</v>
       </c>
       <c r="F13" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -746,12 +794,14 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -766,12 +816,14 @@
         <v>30</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E15" s="1">
         <v>30</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -786,12 +838,14 @@
         <v>20</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -806,12 +860,14 @@
         <v>46</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E17" s="1">
         <v>46</v>
       </c>
       <c r="F17" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -825,14 +881,16 @@
       <c r="C18" s="2">
         <v>73</v>
       </c>
-      <c r="D18" s="2">
-        <v>150</v>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E18" s="2">
         <v>73</v>
       </c>
-      <c r="F18" s="2">
-        <v>150</v>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -846,13 +904,15 @@
         <v>88</v>
       </c>
       <c r="D19" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>88</v>
       </c>
       <c r="F19" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,12 +926,14 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -886,12 +948,14 @@
         <v>30</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E21" s="1">
         <v>30</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -906,12 +970,14 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -926,12 +992,14 @@
         <v>46</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E23" s="1">
         <v>46</v>
       </c>
       <c r="F23" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -945,14 +1013,16 @@
       <c r="C24" s="2">
         <v>73</v>
       </c>
-      <c r="D24" s="2">
-        <v>150</v>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E24" s="2">
         <v>73</v>
       </c>
-      <c r="F24" s="2">
-        <v>150</v>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -966,13 +1036,15 @@
         <v>88</v>
       </c>
       <c r="D25" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E25" s="1">
         <v>88</v>
       </c>
       <c r="F25" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,12 +1058,14 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1006,12 +1080,14 @@
         <v>30</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E27" s="1">
         <v>30</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1026,12 +1102,14 @@
         <v>20</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E28" s="1">
         <v>20</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1046,12 +1124,14 @@
         <v>46</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E29" s="1">
         <v>46</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1065,14 +1145,16 @@
       <c r="C30" s="2">
         <v>73</v>
       </c>
-      <c r="D30" s="2">
-        <v>150</v>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E30" s="2">
         <v>73</v>
       </c>
-      <c r="F30" s="2">
-        <v>150</v>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1086,13 +1168,15 @@
         <v>88</v>
       </c>
       <c r="D31" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E31" s="1">
         <v>88</v>
       </c>
       <c r="F31" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1106,12 +1190,14 @@
         <v>5</v>
       </c>
       <c r="D32" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1126,12 +1212,14 @@
         <v>30</v>
       </c>
       <c r="D33" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E33" s="1">
         <v>30</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1146,12 +1234,14 @@
         <v>20</v>
       </c>
       <c r="D34" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1166,12 +1256,14 @@
         <v>46</v>
       </c>
       <c r="D35" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E35" s="1">
         <v>46</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1185,14 +1277,16 @@
       <c r="C36" s="2">
         <v>73</v>
       </c>
-      <c r="D36" s="2">
-        <v>150</v>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E36" s="2">
         <v>73</v>
       </c>
-      <c r="F36" s="2">
-        <v>150</v>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1206,13 +1300,15 @@
         <v>88</v>
       </c>
       <c r="D37" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E37" s="1">
         <v>88</v>
       </c>
       <c r="F37" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,12 +1322,14 @@
         <v>5</v>
       </c>
       <c r="D38" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1246,12 +1344,14 @@
         <v>30</v>
       </c>
       <c r="D39" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E39" s="1">
         <v>30</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1266,12 +1366,14 @@
         <v>20</v>
       </c>
       <c r="D40" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E40" s="1">
         <v>20</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1286,12 +1388,14 @@
         <v>46</v>
       </c>
       <c r="D41" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E41" s="1">
         <v>46</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1305,14 +1409,16 @@
       <c r="C42" s="2">
         <v>73</v>
       </c>
-      <c r="D42" s="2">
-        <v>150</v>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E42" s="2">
         <v>73</v>
       </c>
-      <c r="F42" s="2">
-        <v>150</v>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1326,13 +1432,15 @@
         <v>88</v>
       </c>
       <c r="D43" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E43" s="1">
         <v>88</v>
       </c>
       <c r="F43" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1346,12 +1454,14 @@
         <v>5</v>
       </c>
       <c r="D44" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
       </c>
       <c r="F44" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1366,12 +1476,14 @@
         <v>30</v>
       </c>
       <c r="D45" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E45" s="1">
         <v>30</v>
       </c>
       <c r="F45" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1386,12 +1498,14 @@
         <v>20</v>
       </c>
       <c r="D46" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E46" s="1">
         <v>20</v>
       </c>
       <c r="F46" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1406,12 +1520,14 @@
         <v>46</v>
       </c>
       <c r="D47" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E47" s="1">
         <v>46</v>
       </c>
       <c r="F47" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1425,14 +1541,16 @@
       <c r="C48" s="2">
         <v>73</v>
       </c>
-      <c r="D48" s="2">
-        <v>150</v>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E48" s="2">
         <v>73</v>
       </c>
-      <c r="F48" s="2">
-        <v>150</v>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,13 +1564,15 @@
         <v>88</v>
       </c>
       <c r="D49" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E49" s="1">
         <v>88</v>
       </c>
       <c r="F49" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,12 +1586,14 @@
         <v>5</v>
       </c>
       <c r="D50" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E50" s="1">
         <v>5</v>
       </c>
       <c r="F50" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1486,12 +1608,14 @@
         <v>30</v>
       </c>
       <c r="D51" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E51" s="1">
         <v>30</v>
       </c>
       <c r="F51" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1506,12 +1630,14 @@
         <v>20</v>
       </c>
       <c r="D52" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E52" s="1">
         <v>20</v>
       </c>
       <c r="F52" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1526,12 +1652,14 @@
         <v>46</v>
       </c>
       <c r="D53" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E53" s="1">
         <v>46</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1545,14 +1673,16 @@
       <c r="C54" s="2">
         <v>73</v>
       </c>
-      <c r="D54" s="2">
-        <v>150</v>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E54" s="2">
         <v>73</v>
       </c>
-      <c r="F54" s="2">
-        <v>150</v>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1566,13 +1696,15 @@
         <v>88</v>
       </c>
       <c r="D55" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E55" s="1">
         <v>88</v>
       </c>
       <c r="F55" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1586,12 +1718,14 @@
         <v>5</v>
       </c>
       <c r="D56" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E56" s="1">
         <v>5</v>
       </c>
       <c r="F56" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1606,12 +1740,14 @@
         <v>30</v>
       </c>
       <c r="D57" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E57" s="1">
         <v>30</v>
       </c>
       <c r="F57" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1626,12 +1762,14 @@
         <v>20</v>
       </c>
       <c r="D58" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E58" s="1">
         <v>20</v>
       </c>
       <c r="F58" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1646,12 +1784,14 @@
         <v>46</v>
       </c>
       <c r="D59" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E59" s="1">
         <v>46</v>
       </c>
       <c r="F59" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1665,14 +1805,16 @@
       <c r="C60" s="2">
         <v>73</v>
       </c>
-      <c r="D60" s="2">
-        <v>150</v>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E60" s="2">
         <v>73</v>
       </c>
-      <c r="F60" s="2">
-        <v>150</v>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1686,13 +1828,15 @@
         <v>88</v>
       </c>
       <c r="D61" s="1">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E61" s="1">
         <v>88</v>
       </c>
       <c r="F61" s="1">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1706,12 +1850,14 @@
         <v>5</v>
       </c>
       <c r="D62" s="1">
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
       </c>
       <c r="F62" s="1">
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1726,12 +1872,14 @@
         <v>30</v>
       </c>
       <c r="D63" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
       </c>
       <c r="F63" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1746,12 +1894,14 @@
         <v>20</v>
       </c>
       <c r="D64" s="1">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E64" s="1">
         <v>20</v>
       </c>
       <c r="F64" s="1">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
@@ -1766,12 +1916,14 @@
         <v>46</v>
       </c>
       <c r="D65" s="1">
+        <f t="shared" si="0"/>
         <v>1250</v>
       </c>
       <c r="E65" s="1">
         <v>46</v>
       </c>
       <c r="F65" s="1">
+        <f t="shared" si="1"/>
         <v>1250</v>
       </c>
     </row>
@@ -1785,14 +1937,16 @@
       <c r="C66" s="2">
         <v>73</v>
       </c>
-      <c r="D66" s="2">
-        <v>150</v>
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E66" s="2">
         <v>73</v>
       </c>
-      <c r="F66" s="2">
-        <v>150</v>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1806,13 +1960,27 @@
         <v>88</v>
       </c>
       <c r="D67" s="1">
-        <v>75</v>
+        <f t="shared" ref="D67:D130" si="2">IF($C67=5,10000000,
+IF($C67=30,1000,
+IF($C67=20,1000,
+IF($C67=46,1250,
+IF($C67=73,200,
+IF($C67=88,100,
+0))))))</f>
+        <v>100</v>
       </c>
       <c r="E67" s="1">
         <v>88</v>
       </c>
       <c r="F67" s="1">
-        <v>75</v>
+        <f t="shared" ref="F67:F130" si="3">IF($C67=5,10000000,
+IF($C67=30,1000,
+IF($C67=20,1000,
+IF($C67=46,1250,
+IF($C67=73,200,
+IF($C67=88,100,
+0))))))</f>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,12 +1994,14 @@
         <v>5</v>
       </c>
       <c r="D68" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E68" s="1">
         <v>5</v>
       </c>
       <c r="F68" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1846,12 +2016,14 @@
         <v>30</v>
       </c>
       <c r="D69" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E69" s="1">
         <v>30</v>
       </c>
       <c r="F69" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -1866,12 +2038,14 @@
         <v>20</v>
       </c>
       <c r="D70" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E70" s="1">
         <v>20</v>
       </c>
       <c r="F70" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -1886,12 +2060,14 @@
         <v>46</v>
       </c>
       <c r="D71" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E71" s="1">
         <v>46</v>
       </c>
       <c r="F71" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -1905,14 +2081,16 @@
       <c r="C72" s="2">
         <v>73</v>
       </c>
-      <c r="D72" s="2">
-        <v>150</v>
+      <c r="D72" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E72" s="2">
         <v>73</v>
       </c>
-      <c r="F72" s="2">
-        <v>150</v>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1926,13 +2104,15 @@
         <v>88</v>
       </c>
       <c r="D73" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E73" s="1">
         <v>88</v>
       </c>
       <c r="F73" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1946,12 +2126,14 @@
         <v>5</v>
       </c>
       <c r="D74" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E74" s="1">
         <v>5</v>
       </c>
       <c r="F74" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -1966,12 +2148,14 @@
         <v>30</v>
       </c>
       <c r="D75" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E75" s="1">
         <v>30</v>
       </c>
       <c r="F75" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -1986,12 +2170,14 @@
         <v>20</v>
       </c>
       <c r="D76" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E76" s="1">
         <v>20</v>
       </c>
       <c r="F76" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2006,12 +2192,14 @@
         <v>46</v>
       </c>
       <c r="D77" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E77" s="1">
         <v>46</v>
       </c>
       <c r="F77" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2025,14 +2213,16 @@
       <c r="C78" s="2">
         <v>73</v>
       </c>
-      <c r="D78" s="2">
-        <v>150</v>
+      <c r="D78" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E78" s="2">
         <v>73</v>
       </c>
-      <c r="F78" s="2">
-        <v>150</v>
+      <c r="F78" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2046,13 +2236,15 @@
         <v>88</v>
       </c>
       <c r="D79" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E79" s="1">
         <v>88</v>
       </c>
       <c r="F79" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,12 +2258,14 @@
         <v>5</v>
       </c>
       <c r="D80" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E80" s="1">
         <v>5</v>
       </c>
       <c r="F80" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2086,12 +2280,14 @@
         <v>30</v>
       </c>
       <c r="D81" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E81" s="1">
         <v>30</v>
       </c>
       <c r="F81" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2106,12 +2302,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E82" s="1">
         <v>20</v>
       </c>
       <c r="F82" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2126,12 +2324,14 @@
         <v>46</v>
       </c>
       <c r="D83" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E83" s="1">
         <v>46</v>
       </c>
       <c r="F83" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2145,14 +2345,16 @@
       <c r="C84" s="2">
         <v>73</v>
       </c>
-      <c r="D84" s="2">
-        <v>150</v>
+      <c r="D84" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E84" s="2">
         <v>73</v>
       </c>
-      <c r="F84" s="2">
-        <v>150</v>
+      <c r="F84" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2166,13 +2368,15 @@
         <v>88</v>
       </c>
       <c r="D85" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E85" s="1">
         <v>88</v>
       </c>
       <c r="F85" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2186,12 +2390,14 @@
         <v>5</v>
       </c>
       <c r="D86" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E86" s="1">
         <v>5</v>
       </c>
       <c r="F86" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2206,12 +2412,14 @@
         <v>30</v>
       </c>
       <c r="D87" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E87" s="1">
         <v>30</v>
       </c>
       <c r="F87" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2226,12 +2434,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E88" s="1">
         <v>20</v>
       </c>
       <c r="F88" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2246,12 +2456,14 @@
         <v>46</v>
       </c>
       <c r="D89" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E89" s="1">
         <v>46</v>
       </c>
       <c r="F89" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2265,14 +2477,16 @@
       <c r="C90" s="2">
         <v>73</v>
       </c>
-      <c r="D90" s="2">
-        <v>150</v>
+      <c r="D90" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E90" s="2">
         <v>73</v>
       </c>
-      <c r="F90" s="2">
-        <v>150</v>
+      <c r="F90" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2286,13 +2500,15 @@
         <v>88</v>
       </c>
       <c r="D91" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E91" s="1">
         <v>88</v>
       </c>
       <c r="F91" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,12 +2522,14 @@
         <v>5</v>
       </c>
       <c r="D92" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E92" s="1">
         <v>5</v>
       </c>
       <c r="F92" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2326,12 +2544,14 @@
         <v>30</v>
       </c>
       <c r="D93" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E93" s="1">
         <v>30</v>
       </c>
       <c r="F93" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2346,12 +2566,14 @@
         <v>20</v>
       </c>
       <c r="D94" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E94" s="1">
         <v>20</v>
       </c>
       <c r="F94" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2366,12 +2588,14 @@
         <v>46</v>
       </c>
       <c r="D95" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E95" s="1">
         <v>46</v>
       </c>
       <c r="F95" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2385,14 +2609,16 @@
       <c r="C96" s="2">
         <v>73</v>
       </c>
-      <c r="D96" s="2">
-        <v>150</v>
+      <c r="D96" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E96" s="2">
         <v>73</v>
       </c>
-      <c r="F96" s="2">
-        <v>150</v>
+      <c r="F96" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2406,13 +2632,15 @@
         <v>88</v>
       </c>
       <c r="D97" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E97" s="1">
         <v>88</v>
       </c>
       <c r="F97" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2426,12 +2654,14 @@
         <v>5</v>
       </c>
       <c r="D98" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E98" s="1">
         <v>5</v>
       </c>
       <c r="F98" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2446,12 +2676,14 @@
         <v>30</v>
       </c>
       <c r="D99" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E99" s="1">
         <v>30</v>
       </c>
       <c r="F99" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2466,12 +2698,14 @@
         <v>30</v>
       </c>
       <c r="D100" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E100" s="1">
         <v>30</v>
       </c>
       <c r="F100" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2486,12 +2720,14 @@
         <v>20</v>
       </c>
       <c r="D101" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E101" s="1">
         <v>20</v>
       </c>
       <c r="F101" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2506,12 +2742,14 @@
         <v>46</v>
       </c>
       <c r="D102" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E102" s="1">
         <v>46</v>
       </c>
       <c r="F102" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2526,12 +2764,14 @@
         <v>20</v>
       </c>
       <c r="D103" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E103" s="1">
         <v>20</v>
       </c>
       <c r="F103" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2545,14 +2785,16 @@
       <c r="C104" s="2">
         <v>73</v>
       </c>
-      <c r="D104" s="2">
-        <v>150</v>
+      <c r="D104" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E104" s="2">
         <v>73</v>
       </c>
-      <c r="F104" s="2">
-        <v>150</v>
+      <c r="F104" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2566,13 +2808,15 @@
         <v>88</v>
       </c>
       <c r="D105" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E105" s="1">
         <v>88</v>
       </c>
       <c r="F105" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2586,12 +2830,14 @@
         <v>5</v>
       </c>
       <c r="D106" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E106" s="1">
         <v>5</v>
       </c>
       <c r="F106" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2606,12 +2852,14 @@
         <v>46</v>
       </c>
       <c r="D107" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E107" s="1">
         <v>46</v>
       </c>
       <c r="F107" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2626,12 +2874,14 @@
         <v>30</v>
       </c>
       <c r="D108" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E108" s="1">
         <v>30</v>
       </c>
       <c r="F108" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2646,12 +2896,14 @@
         <v>20</v>
       </c>
       <c r="D109" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E109" s="1">
         <v>20</v>
       </c>
       <c r="F109" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2666,12 +2918,14 @@
         <v>46</v>
       </c>
       <c r="D110" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E110" s="1">
         <v>46</v>
       </c>
       <c r="F110" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2685,14 +2939,16 @@
       <c r="C111" s="2">
         <v>73</v>
       </c>
-      <c r="D111" s="2">
-        <v>150</v>
+      <c r="D111" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E111" s="2">
         <v>73</v>
       </c>
-      <c r="F111" s="2">
-        <v>150</v>
+      <c r="F111" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2705,14 +2961,16 @@
       <c r="C112" s="2">
         <v>73</v>
       </c>
-      <c r="D112" s="2">
-        <v>150</v>
+      <c r="D112" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E112" s="2">
         <v>73</v>
       </c>
-      <c r="F112" s="2">
-        <v>150</v>
+      <c r="F112" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,13 +2984,15 @@
         <v>88</v>
       </c>
       <c r="D113" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E113" s="1">
         <v>88</v>
       </c>
       <c r="F113" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2746,12 +3006,14 @@
         <v>5</v>
       </c>
       <c r="D114" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E114" s="1">
         <v>5</v>
       </c>
       <c r="F114" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2766,12 +3028,14 @@
         <v>30</v>
       </c>
       <c r="D115" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E115" s="1">
         <v>30</v>
       </c>
       <c r="F115" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2786,13 +3050,15 @@
         <v>88</v>
       </c>
       <c r="D116" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E116" s="1">
         <v>88</v>
       </c>
       <c r="F116" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2806,12 +3072,14 @@
         <v>20</v>
       </c>
       <c r="D117" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E117" s="1">
         <v>20</v>
       </c>
       <c r="F117" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2826,12 +3094,14 @@
         <v>46</v>
       </c>
       <c r="D118" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E118" s="1">
         <v>46</v>
       </c>
       <c r="F118" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -2845,14 +3115,16 @@
       <c r="C119" s="2">
         <v>73</v>
       </c>
-      <c r="D119" s="2">
-        <v>150</v>
+      <c r="D119" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E119" s="2">
         <v>73</v>
       </c>
-      <c r="F119" s="2">
-        <v>150</v>
+      <c r="F119" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2866,12 +3138,14 @@
         <v>5</v>
       </c>
       <c r="D120" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E120" s="1">
         <v>5</v>
       </c>
       <c r="F120" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2886,13 +3160,15 @@
         <v>88</v>
       </c>
       <c r="D121" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E121" s="1">
         <v>88</v>
       </c>
       <c r="F121" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2906,12 +3182,14 @@
         <v>5</v>
       </c>
       <c r="D122" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E122" s="1">
         <v>5</v>
       </c>
       <c r="F122" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -2926,12 +3204,14 @@
         <v>30</v>
       </c>
       <c r="D123" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E123" s="1">
         <v>30</v>
       </c>
       <c r="F123" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2946,12 +3226,14 @@
         <v>30</v>
       </c>
       <c r="D124" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E124" s="1">
         <v>30</v>
       </c>
       <c r="F124" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2966,12 +3248,14 @@
         <v>20</v>
       </c>
       <c r="D125" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E125" s="1">
         <v>20</v>
       </c>
       <c r="F125" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -2986,12 +3270,14 @@
         <v>46</v>
       </c>
       <c r="D126" s="1">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="E126" s="1">
         <v>46</v>
       </c>
       <c r="F126" s="1">
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
     </row>
@@ -3005,14 +3291,16 @@
       <c r="C127" s="2">
         <v>73</v>
       </c>
-      <c r="D127" s="2">
-        <v>150</v>
+      <c r="D127" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E127" s="2">
         <v>73</v>
       </c>
-      <c r="F127" s="2">
-        <v>150</v>
+      <c r="F127" s="1">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,12 +3314,14 @@
         <v>20</v>
       </c>
       <c r="D128" s="1">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="E128" s="1">
         <v>20</v>
       </c>
       <c r="F128" s="1">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
     </row>
@@ -3046,13 +3336,15 @@
         <v>88</v>
       </c>
       <c r="D129" s="1">
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E129" s="1">
         <v>88</v>
       </c>
       <c r="F129" s="1">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,12 +3358,14 @@
         <v>5</v>
       </c>
       <c r="D130" s="1">
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="E130" s="1">
         <v>5</v>
       </c>
       <c r="F130" s="1">
+        <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3086,12 +3380,26 @@
         <v>30</v>
       </c>
       <c r="D131" s="1">
+        <f t="shared" ref="D131:D194" si="4">IF($C131=5,10000000,
+IF($C131=30,1000,
+IF($C131=20,1000,
+IF($C131=46,1250,
+IF($C131=73,200,
+IF($C131=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
       <c r="E131" s="1">
         <v>30</v>
       </c>
       <c r="F131" s="1">
+        <f t="shared" ref="F131:F194" si="5">IF($C131=5,10000000,
+IF($C131=30,1000,
+IF($C131=20,1000,
+IF($C131=46,1250,
+IF($C131=73,200,
+IF($C131=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
     </row>
@@ -3106,12 +3414,14 @@
         <v>46</v>
       </c>
       <c r="D132" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E132" s="1">
         <v>46</v>
       </c>
       <c r="F132" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3126,12 +3436,14 @@
         <v>20</v>
       </c>
       <c r="D133" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E133" s="1">
         <v>20</v>
       </c>
       <c r="F133" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3146,12 +3458,14 @@
         <v>46</v>
       </c>
       <c r="D134" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E134" s="1">
         <v>46</v>
       </c>
       <c r="F134" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3165,14 +3479,16 @@
       <c r="C135" s="2">
         <v>73</v>
       </c>
-      <c r="D135" s="2">
-        <v>150</v>
+      <c r="D135" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E135" s="2">
         <v>73</v>
       </c>
-      <c r="F135" s="2">
-        <v>150</v>
+      <c r="F135" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3186,13 +3502,15 @@
         <v>88</v>
       </c>
       <c r="D136" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E136" s="1">
         <v>88</v>
       </c>
       <c r="F136" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3205,14 +3523,16 @@
       <c r="C137" s="2">
         <v>73</v>
       </c>
-      <c r="D137" s="2">
-        <v>150</v>
+      <c r="D137" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E137" s="2">
         <v>73</v>
       </c>
-      <c r="F137" s="2">
-        <v>150</v>
+      <c r="F137" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,12 +3546,14 @@
         <v>5</v>
       </c>
       <c r="D138" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E138" s="1">
         <v>5</v>
       </c>
       <c r="F138" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3246,12 +3568,14 @@
         <v>30</v>
       </c>
       <c r="D139" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E139" s="1">
         <v>30</v>
       </c>
       <c r="F139" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3266,12 +3590,14 @@
         <v>20</v>
       </c>
       <c r="D140" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E140" s="1">
         <v>20</v>
       </c>
       <c r="F140" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3286,13 +3612,15 @@
         <v>88</v>
       </c>
       <c r="D141" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E141" s="1">
         <v>88</v>
       </c>
       <c r="F141" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3306,12 +3634,14 @@
         <v>46</v>
       </c>
       <c r="D142" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E142" s="1">
         <v>46</v>
       </c>
       <c r="F142" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3325,14 +3655,16 @@
       <c r="C143" s="2">
         <v>73</v>
       </c>
-      <c r="D143" s="2">
-        <v>150</v>
+      <c r="D143" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E143" s="2">
         <v>73</v>
       </c>
-      <c r="F143" s="2">
-        <v>150</v>
+      <c r="F143" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3346,13 +3678,15 @@
         <v>88</v>
       </c>
       <c r="D144" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E144" s="1">
         <v>88</v>
       </c>
       <c r="F144" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3366,12 +3700,14 @@
         <v>5</v>
       </c>
       <c r="D145" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E145" s="1">
         <v>5</v>
       </c>
       <c r="F145" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3386,12 +3722,14 @@
         <v>5</v>
       </c>
       <c r="D146" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E146" s="1">
         <v>5</v>
       </c>
       <c r="F146" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3406,12 +3744,14 @@
         <v>30</v>
       </c>
       <c r="D147" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E147" s="1">
         <v>30</v>
       </c>
       <c r="F147" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3426,12 +3766,14 @@
         <v>20</v>
       </c>
       <c r="D148" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E148" s="1">
         <v>20</v>
       </c>
       <c r="F148" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3446,12 +3788,14 @@
         <v>30</v>
       </c>
       <c r="D149" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E149" s="1">
         <v>30</v>
       </c>
       <c r="F149" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3466,12 +3810,14 @@
         <v>46</v>
       </c>
       <c r="D150" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E150" s="1">
         <v>46</v>
       </c>
       <c r="F150" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3485,14 +3831,16 @@
       <c r="C151" s="2">
         <v>73</v>
       </c>
-      <c r="D151" s="2">
-        <v>150</v>
+      <c r="D151" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E151" s="2">
         <v>73</v>
       </c>
-      <c r="F151" s="2">
-        <v>150</v>
+      <c r="F151" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,13 +3854,15 @@
         <v>88</v>
       </c>
       <c r="D152" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E152" s="1">
         <v>88</v>
       </c>
       <c r="F152" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3526,12 +3876,14 @@
         <v>20</v>
       </c>
       <c r="D153" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E153" s="1">
         <v>20</v>
       </c>
       <c r="F153" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3546,12 +3898,14 @@
         <v>5</v>
       </c>
       <c r="D154" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E154" s="1">
         <v>5</v>
       </c>
       <c r="F154" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3566,12 +3920,14 @@
         <v>30</v>
       </c>
       <c r="D155" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E155" s="1">
         <v>30</v>
       </c>
       <c r="F155" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3586,12 +3942,14 @@
         <v>20</v>
       </c>
       <c r="D156" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E156" s="1">
         <v>20</v>
       </c>
       <c r="F156" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3606,12 +3964,14 @@
         <v>46</v>
       </c>
       <c r="D157" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E157" s="1">
         <v>46</v>
       </c>
       <c r="F157" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3626,12 +3986,14 @@
         <v>46</v>
       </c>
       <c r="D158" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E158" s="1">
         <v>46</v>
       </c>
       <c r="F158" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3645,14 +4007,16 @@
       <c r="C159" s="2">
         <v>73</v>
       </c>
-      <c r="D159" s="2">
-        <v>150</v>
+      <c r="D159" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E159" s="2">
         <v>73</v>
       </c>
-      <c r="F159" s="2">
-        <v>150</v>
+      <c r="F159" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3666,13 +4030,15 @@
         <v>88</v>
       </c>
       <c r="D160" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E160" s="1">
         <v>88</v>
       </c>
       <c r="F160" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3686,12 +4052,14 @@
         <v>5</v>
       </c>
       <c r="D161" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E161" s="1">
         <v>5</v>
       </c>
       <c r="F161" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3705,14 +4073,16 @@
       <c r="C162" s="2">
         <v>73</v>
       </c>
-      <c r="D162" s="2">
-        <v>150</v>
+      <c r="D162" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E162" s="2">
         <v>73</v>
       </c>
-      <c r="F162" s="2">
-        <v>150</v>
+      <c r="F162" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3726,12 +4096,14 @@
         <v>30</v>
       </c>
       <c r="D163" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E163" s="1">
         <v>30</v>
       </c>
       <c r="F163" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3746,12 +4118,14 @@
         <v>20</v>
       </c>
       <c r="D164" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E164" s="1">
         <v>20</v>
       </c>
       <c r="F164" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3766,12 +4140,14 @@
         <v>46</v>
       </c>
       <c r="D165" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E165" s="1">
         <v>46</v>
       </c>
       <c r="F165" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3786,13 +4162,15 @@
         <v>88</v>
       </c>
       <c r="D166" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E166" s="1">
         <v>88</v>
       </c>
       <c r="F166" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3805,14 +4183,16 @@
       <c r="C167" s="2">
         <v>73</v>
       </c>
-      <c r="D167" s="2">
-        <v>150</v>
+      <c r="D167" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E167" s="2">
         <v>73</v>
       </c>
-      <c r="F167" s="2">
-        <v>150</v>
+      <c r="F167" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3826,13 +4206,15 @@
         <v>88</v>
       </c>
       <c r="D168" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E168" s="1">
         <v>88</v>
       </c>
       <c r="F168" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3846,12 +4228,14 @@
         <v>5</v>
       </c>
       <c r="D169" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E169" s="1">
         <v>5</v>
       </c>
       <c r="F169" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3866,12 +4250,14 @@
         <v>5</v>
       </c>
       <c r="D170" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E170" s="1">
         <v>5</v>
       </c>
       <c r="F170" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -3886,12 +4272,14 @@
         <v>30</v>
       </c>
       <c r="D171" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E171" s="1">
         <v>30</v>
       </c>
       <c r="F171" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3906,12 +4294,14 @@
         <v>20</v>
       </c>
       <c r="D172" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E172" s="1">
         <v>20</v>
       </c>
       <c r="F172" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3926,12 +4316,14 @@
         <v>46</v>
       </c>
       <c r="D173" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E173" s="1">
         <v>46</v>
       </c>
       <c r="F173" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -3946,12 +4338,14 @@
         <v>30</v>
       </c>
       <c r="D174" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E174" s="1">
         <v>30</v>
       </c>
       <c r="F174" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -3965,14 +4359,16 @@
       <c r="C175" s="2">
         <v>73</v>
       </c>
-      <c r="D175" s="2">
-        <v>150</v>
+      <c r="D175" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E175" s="2">
         <v>73</v>
       </c>
-      <c r="F175" s="2">
-        <v>150</v>
+      <c r="F175" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3986,13 +4382,15 @@
         <v>88</v>
       </c>
       <c r="D176" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E176" s="1">
         <v>88</v>
       </c>
       <c r="F176" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4006,12 +4404,14 @@
         <v>5</v>
       </c>
       <c r="D177" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E177" s="1">
         <v>5</v>
       </c>
       <c r="F177" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -4026,12 +4426,14 @@
         <v>30</v>
       </c>
       <c r="D178" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E178" s="1">
         <v>30</v>
       </c>
       <c r="F178" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -4046,12 +4448,14 @@
         <v>20</v>
       </c>
       <c r="D179" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E179" s="1">
         <v>20</v>
       </c>
       <c r="F179" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -4066,12 +4470,14 @@
         <v>20</v>
       </c>
       <c r="D180" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E180" s="1">
         <v>20</v>
       </c>
       <c r="F180" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -4086,12 +4492,14 @@
         <v>46</v>
       </c>
       <c r="D181" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E181" s="1">
         <v>46</v>
       </c>
       <c r="F181" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -4105,14 +4513,16 @@
       <c r="C182" s="2">
         <v>73</v>
       </c>
-      <c r="D182" s="2">
-        <v>150</v>
+      <c r="D182" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E182" s="2">
         <v>73</v>
       </c>
-      <c r="F182" s="2">
-        <v>150</v>
+      <c r="F182" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4126,12 +4536,14 @@
         <v>46</v>
       </c>
       <c r="D183" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E183" s="1">
         <v>46</v>
       </c>
       <c r="F183" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -4146,13 +4558,15 @@
         <v>88</v>
       </c>
       <c r="D184" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E184" s="1">
         <v>88</v>
       </c>
       <c r="F184" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4166,12 +4580,14 @@
         <v>5</v>
       </c>
       <c r="D185" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E185" s="1">
         <v>5</v>
       </c>
       <c r="F185" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -4186,12 +4602,14 @@
         <v>30</v>
       </c>
       <c r="D186" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E186" s="1">
         <v>30</v>
       </c>
       <c r="F186" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -4205,14 +4623,16 @@
       <c r="C187" s="2">
         <v>73</v>
       </c>
-      <c r="D187" s="2">
-        <v>150</v>
+      <c r="D187" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E187" s="2">
         <v>73</v>
       </c>
-      <c r="F187" s="2">
-        <v>150</v>
+      <c r="F187" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4226,12 +4646,14 @@
         <v>20</v>
       </c>
       <c r="D188" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E188" s="1">
         <v>20</v>
       </c>
       <c r="F188" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -4246,12 +4668,14 @@
         <v>46</v>
       </c>
       <c r="D189" s="1">
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="E189" s="1">
         <v>46</v>
       </c>
       <c r="F189" s="1">
+        <f t="shared" si="5"/>
         <v>1250</v>
       </c>
     </row>
@@ -4265,14 +4689,16 @@
       <c r="C190" s="2">
         <v>73</v>
       </c>
-      <c r="D190" s="2">
-        <v>150</v>
+      <c r="D190" s="1">
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E190" s="2">
         <v>73</v>
       </c>
-      <c r="F190" s="2">
-        <v>150</v>
+      <c r="F190" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4286,13 +4712,15 @@
         <v>88</v>
       </c>
       <c r="D191" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E191" s="1">
         <v>88</v>
       </c>
       <c r="F191" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4306,13 +4734,15 @@
         <v>88</v>
       </c>
       <c r="D192" s="1">
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E192" s="1">
         <v>88</v>
       </c>
       <c r="F192" s="1">
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4326,12 +4756,14 @@
         <v>5</v>
       </c>
       <c r="D193" s="1">
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
       <c r="E193" s="1">
         <v>5</v>
       </c>
       <c r="F193" s="1">
+        <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
     </row>
@@ -4346,12 +4778,14 @@
         <v>30</v>
       </c>
       <c r="D194" s="1">
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="E194" s="1">
         <v>30</v>
       </c>
       <c r="F194" s="1">
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
     </row>
@@ -4366,12 +4800,26 @@
         <v>5</v>
       </c>
       <c r="D195" s="1">
+        <f t="shared" ref="D195:D258" si="6">IF($C195=5,10000000,
+IF($C195=30,1000,
+IF($C195=20,1000,
+IF($C195=46,1250,
+IF($C195=73,200,
+IF($C195=88,100,
+0))))))</f>
         <v>10000000</v>
       </c>
       <c r="E195" s="1">
         <v>5</v>
       </c>
       <c r="F195" s="1">
+        <f t="shared" ref="F195:F258" si="7">IF($C195=5,10000000,
+IF($C195=30,1000,
+IF($C195=20,1000,
+IF($C195=46,1250,
+IF($C195=73,200,
+IF($C195=88,100,
+0))))))</f>
         <v>10000000</v>
       </c>
     </row>
@@ -4386,12 +4834,14 @@
         <v>20</v>
       </c>
       <c r="D196" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E196" s="1">
         <v>20</v>
       </c>
       <c r="F196" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4406,12 +4856,14 @@
         <v>46</v>
       </c>
       <c r="D197" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E197" s="1">
         <v>46</v>
       </c>
       <c r="F197" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -4425,14 +4877,16 @@
       <c r="C198" s="2">
         <v>73</v>
       </c>
-      <c r="D198" s="2">
-        <v>150</v>
+      <c r="D198" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E198" s="2">
         <v>73</v>
       </c>
-      <c r="F198" s="2">
-        <v>150</v>
+      <c r="F198" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4446,13 +4900,15 @@
         <v>88</v>
       </c>
       <c r="D199" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E199" s="1">
         <v>88</v>
       </c>
       <c r="F199" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4466,12 +4922,14 @@
         <v>30</v>
       </c>
       <c r="D200" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E200" s="1">
         <v>30</v>
       </c>
       <c r="F200" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4486,12 +4944,14 @@
         <v>5</v>
       </c>
       <c r="D201" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E201" s="1">
         <v>5</v>
       </c>
       <c r="F201" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -4506,12 +4966,14 @@
         <v>30</v>
       </c>
       <c r="D202" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E202" s="1">
         <v>30</v>
       </c>
       <c r="F202" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4526,12 +4988,14 @@
         <v>20</v>
       </c>
       <c r="D203" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E203" s="1">
         <v>20</v>
       </c>
       <c r="F203" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4546,12 +5010,14 @@
         <v>20</v>
       </c>
       <c r="D204" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E204" s="1">
         <v>20</v>
       </c>
       <c r="F204" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4566,12 +5032,14 @@
         <v>46</v>
       </c>
       <c r="D205" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E205" s="1">
         <v>46</v>
       </c>
       <c r="F205" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -4585,14 +5053,16 @@
       <c r="C206" s="2">
         <v>73</v>
       </c>
-      <c r="D206" s="2">
-        <v>150</v>
+      <c r="D206" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E206" s="2">
         <v>73</v>
       </c>
-      <c r="F206" s="2">
-        <v>150</v>
+      <c r="F206" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4606,13 +5076,15 @@
         <v>88</v>
       </c>
       <c r="D207" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E207" s="1">
         <v>88</v>
       </c>
       <c r="F207" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4626,12 +5098,14 @@
         <v>46</v>
       </c>
       <c r="D208" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E208" s="1">
         <v>46</v>
       </c>
       <c r="F208" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -4646,12 +5120,14 @@
         <v>5</v>
       </c>
       <c r="D209" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E209" s="1">
         <v>5</v>
       </c>
       <c r="F209" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -4666,12 +5142,14 @@
         <v>30</v>
       </c>
       <c r="D210" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E210" s="1">
         <v>30</v>
       </c>
       <c r="F210" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4686,12 +5164,14 @@
         <v>20</v>
       </c>
       <c r="D211" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E211" s="1">
         <v>20</v>
       </c>
       <c r="F211" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4705,14 +5185,16 @@
       <c r="C212" s="2">
         <v>73</v>
       </c>
-      <c r="D212" s="2">
-        <v>150</v>
+      <c r="D212" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E212" s="2">
         <v>73</v>
       </c>
-      <c r="F212" s="2">
-        <v>150</v>
+      <c r="F212" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4726,13 +5208,15 @@
         <v>88</v>
       </c>
       <c r="D213" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E213" s="1">
         <v>88</v>
       </c>
       <c r="F213" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4746,12 +5230,14 @@
         <v>5</v>
       </c>
       <c r="D214" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E214" s="1">
         <v>5</v>
       </c>
       <c r="F214" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -4766,12 +5252,14 @@
         <v>30</v>
       </c>
       <c r="D215" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E215" s="1">
         <v>30</v>
       </c>
       <c r="F215" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4786,12 +5274,14 @@
         <v>20</v>
       </c>
       <c r="D216" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E216" s="1">
         <v>20</v>
       </c>
       <c r="F216" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4806,12 +5296,14 @@
         <v>46</v>
       </c>
       <c r="D217" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E217" s="1">
         <v>46</v>
       </c>
       <c r="F217" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -4825,14 +5317,16 @@
       <c r="C218" s="2">
         <v>73</v>
       </c>
-      <c r="D218" s="2">
-        <v>150</v>
+      <c r="D218" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E218" s="2">
         <v>73</v>
       </c>
-      <c r="F218" s="2">
-        <v>150</v>
+      <c r="F218" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4846,13 +5340,15 @@
         <v>88</v>
       </c>
       <c r="D219" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E219" s="1">
         <v>88</v>
       </c>
       <c r="F219" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4866,12 +5362,14 @@
         <v>5</v>
       </c>
       <c r="D220" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E220" s="1">
         <v>5</v>
       </c>
       <c r="F220" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -4886,12 +5384,14 @@
         <v>30</v>
       </c>
       <c r="D221" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E221" s="1">
         <v>30</v>
       </c>
       <c r="F221" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4906,12 +5406,14 @@
         <v>20</v>
       </c>
       <c r="D222" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E222" s="1">
         <v>20</v>
       </c>
       <c r="F222" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -4926,12 +5428,14 @@
         <v>46</v>
       </c>
       <c r="D223" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E223" s="1">
         <v>46</v>
       </c>
       <c r="F223" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -4945,14 +5449,16 @@
       <c r="C224" s="2">
         <v>73</v>
       </c>
-      <c r="D224" s="2">
-        <v>150</v>
+      <c r="D224" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E224" s="2">
         <v>73</v>
       </c>
-      <c r="F224" s="2">
-        <v>150</v>
+      <c r="F224" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,13 +5472,15 @@
         <v>88</v>
       </c>
       <c r="D225" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E225" s="1">
         <v>88</v>
       </c>
       <c r="F225" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -4986,12 +5494,14 @@
         <v>5</v>
       </c>
       <c r="D226" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E226" s="1">
         <v>5</v>
       </c>
       <c r="F226" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5006,12 +5516,14 @@
         <v>30</v>
       </c>
       <c r="D227" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E227" s="1">
         <v>30</v>
       </c>
       <c r="F227" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5026,12 +5538,14 @@
         <v>20</v>
       </c>
       <c r="D228" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E228" s="1">
         <v>20</v>
       </c>
       <c r="F228" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5046,12 +5560,14 @@
         <v>46</v>
       </c>
       <c r="D229" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E229" s="1">
         <v>46</v>
       </c>
       <c r="F229" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -5065,14 +5581,16 @@
       <c r="C230" s="2">
         <v>73</v>
       </c>
-      <c r="D230" s="2">
-        <v>150</v>
+      <c r="D230" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E230" s="2">
         <v>73</v>
       </c>
-      <c r="F230" s="2">
-        <v>150</v>
+      <c r="F230" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5086,13 +5604,15 @@
         <v>88</v>
       </c>
       <c r="D231" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E231" s="1">
         <v>88</v>
       </c>
       <c r="F231" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5106,12 +5626,14 @@
         <v>5</v>
       </c>
       <c r="D232" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E232" s="1">
         <v>5</v>
       </c>
       <c r="F232" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5126,12 +5648,14 @@
         <v>30</v>
       </c>
       <c r="D233" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E233" s="1">
         <v>30</v>
       </c>
       <c r="F233" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5146,12 +5670,14 @@
         <v>20</v>
       </c>
       <c r="D234" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E234" s="1">
         <v>20</v>
       </c>
       <c r="F234" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5166,12 +5692,14 @@
         <v>46</v>
       </c>
       <c r="D235" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E235" s="1">
         <v>46</v>
       </c>
       <c r="F235" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -5185,14 +5713,16 @@
       <c r="C236" s="2">
         <v>73</v>
       </c>
-      <c r="D236" s="2">
-        <v>150</v>
+      <c r="D236" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E236" s="2">
         <v>73</v>
       </c>
-      <c r="F236" s="2">
-        <v>150</v>
+      <c r="F236" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5206,13 +5736,15 @@
         <v>88</v>
       </c>
       <c r="D237" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E237" s="1">
         <v>88</v>
       </c>
       <c r="F237" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5226,12 +5758,14 @@
         <v>5</v>
       </c>
       <c r="D238" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E238" s="1">
         <v>5</v>
       </c>
       <c r="F238" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5246,12 +5780,14 @@
         <v>30</v>
       </c>
       <c r="D239" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E239" s="1">
         <v>30</v>
       </c>
       <c r="F239" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5266,12 +5802,14 @@
         <v>20</v>
       </c>
       <c r="D240" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E240" s="1">
         <v>20</v>
       </c>
       <c r="F240" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5286,12 +5824,14 @@
         <v>46</v>
       </c>
       <c r="D241" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E241" s="1">
         <v>46</v>
       </c>
       <c r="F241" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -5305,14 +5845,16 @@
       <c r="C242" s="2">
         <v>73</v>
       </c>
-      <c r="D242" s="2">
-        <v>150</v>
+      <c r="D242" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E242" s="2">
         <v>73</v>
       </c>
-      <c r="F242" s="2">
-        <v>150</v>
+      <c r="F242" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5326,13 +5868,15 @@
         <v>88</v>
       </c>
       <c r="D243" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E243" s="1">
         <v>88</v>
       </c>
       <c r="F243" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5346,12 +5890,14 @@
         <v>5</v>
       </c>
       <c r="D244" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E244" s="1">
         <v>5</v>
       </c>
       <c r="F244" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5366,12 +5912,14 @@
         <v>30</v>
       </c>
       <c r="D245" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E245" s="1">
         <v>30</v>
       </c>
       <c r="F245" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5386,12 +5934,14 @@
         <v>20</v>
       </c>
       <c r="D246" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E246" s="1">
         <v>20</v>
       </c>
       <c r="F246" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5406,12 +5956,14 @@
         <v>46</v>
       </c>
       <c r="D247" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E247" s="1">
         <v>46</v>
       </c>
       <c r="F247" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -5425,14 +5977,16 @@
       <c r="C248" s="2">
         <v>73</v>
       </c>
-      <c r="D248" s="2">
-        <v>150</v>
+      <c r="D248" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E248" s="2">
         <v>73</v>
       </c>
-      <c r="F248" s="2">
-        <v>150</v>
+      <c r="F248" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5446,13 +6000,15 @@
         <v>88</v>
       </c>
       <c r="D249" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E249" s="1">
         <v>88</v>
       </c>
       <c r="F249" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,12 +6022,14 @@
         <v>5</v>
       </c>
       <c r="D250" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E250" s="1">
         <v>5</v>
       </c>
       <c r="F250" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5486,12 +6044,14 @@
         <v>30</v>
       </c>
       <c r="D251" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E251" s="1">
         <v>30</v>
       </c>
       <c r="F251" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5506,12 +6066,14 @@
         <v>20</v>
       </c>
       <c r="D252" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E252" s="1">
         <v>20</v>
       </c>
       <c r="F252" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5526,12 +6088,14 @@
         <v>46</v>
       </c>
       <c r="D253" s="1">
+        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
       <c r="E253" s="1">
         <v>46</v>
       </c>
       <c r="F253" s="1">
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
     </row>
@@ -5545,14 +6109,16 @@
       <c r="C254" s="2">
         <v>73</v>
       </c>
-      <c r="D254" s="2">
-        <v>150</v>
+      <c r="D254" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E254" s="2">
         <v>73</v>
       </c>
-      <c r="F254" s="2">
-        <v>150</v>
+      <c r="F254" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,13 +6132,15 @@
         <v>88</v>
       </c>
       <c r="D255" s="1">
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E255" s="1">
         <v>88</v>
       </c>
       <c r="F255" s="1">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5586,12 +6154,14 @@
         <v>5</v>
       </c>
       <c r="D256" s="1">
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
       <c r="E256" s="1">
         <v>5</v>
       </c>
       <c r="F256" s="1">
+        <f t="shared" si="7"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5606,12 +6176,14 @@
         <v>30</v>
       </c>
       <c r="D257" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E257" s="1">
         <v>30</v>
       </c>
       <c r="F257" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5626,12 +6198,14 @@
         <v>20</v>
       </c>
       <c r="D258" s="1">
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E258" s="1">
         <v>20</v>
       </c>
       <c r="F258" s="1">
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
     </row>
@@ -5646,12 +6220,26 @@
         <v>46</v>
       </c>
       <c r="D259" s="1">
+        <f t="shared" ref="D259:D322" si="8">IF($C259=5,10000000,
+IF($C259=30,1000,
+IF($C259=20,1000,
+IF($C259=46,1250,
+IF($C259=73,200,
+IF($C259=88,100,
+0))))))</f>
         <v>1250</v>
       </c>
       <c r="E259" s="1">
         <v>46</v>
       </c>
       <c r="F259" s="1">
+        <f t="shared" ref="F259:F322" si="9">IF($C259=5,10000000,
+IF($C259=30,1000,
+IF($C259=20,1000,
+IF($C259=46,1250,
+IF($C259=73,200,
+IF($C259=88,100,
+0))))))</f>
         <v>1250</v>
       </c>
     </row>
@@ -5665,14 +6253,16 @@
       <c r="C260" s="2">
         <v>73</v>
       </c>
-      <c r="D260" s="2">
-        <v>150</v>
+      <c r="D260" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E260" s="2">
         <v>73</v>
       </c>
-      <c r="F260" s="2">
-        <v>150</v>
+      <c r="F260" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5686,13 +6276,15 @@
         <v>88</v>
       </c>
       <c r="D261" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E261" s="1">
         <v>88</v>
       </c>
       <c r="F261" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -5706,12 +6298,14 @@
         <v>5</v>
       </c>
       <c r="D262" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E262" s="1">
         <v>5</v>
       </c>
       <c r="F262" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5726,12 +6320,14 @@
         <v>30</v>
       </c>
       <c r="D263" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E263" s="1">
         <v>30</v>
       </c>
       <c r="F263" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -5746,12 +6342,14 @@
         <v>20</v>
       </c>
       <c r="D264" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E264" s="1">
         <v>20</v>
       </c>
       <c r="F264" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -5766,12 +6364,14 @@
         <v>46</v>
       </c>
       <c r="D265" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E265" s="1">
         <v>46</v>
       </c>
       <c r="F265" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -5785,14 +6385,16 @@
       <c r="C266" s="2">
         <v>73</v>
       </c>
-      <c r="D266" s="2">
-        <v>150</v>
+      <c r="D266" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E266" s="2">
         <v>73</v>
       </c>
-      <c r="F266" s="2">
-        <v>150</v>
+      <c r="F266" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5806,13 +6408,15 @@
         <v>88</v>
       </c>
       <c r="D267" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E267" s="1">
         <v>88</v>
       </c>
       <c r="F267" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5826,12 +6430,14 @@
         <v>5</v>
       </c>
       <c r="D268" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E268" s="1">
         <v>5</v>
       </c>
       <c r="F268" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5846,12 +6452,14 @@
         <v>30</v>
       </c>
       <c r="D269" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E269" s="1">
         <v>30</v>
       </c>
       <c r="F269" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -5866,12 +6474,14 @@
         <v>20</v>
       </c>
       <c r="D270" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E270" s="1">
         <v>20</v>
       </c>
       <c r="F270" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -5886,12 +6496,14 @@
         <v>46</v>
       </c>
       <c r="D271" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E271" s="1">
         <v>46</v>
       </c>
       <c r="F271" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -5905,14 +6517,16 @@
       <c r="C272" s="2">
         <v>73</v>
       </c>
-      <c r="D272" s="2">
-        <v>150</v>
+      <c r="D272" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E272" s="2">
         <v>73</v>
       </c>
-      <c r="F272" s="2">
-        <v>150</v>
+      <c r="F272" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5926,13 +6540,15 @@
         <v>88</v>
       </c>
       <c r="D273" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E273" s="1">
         <v>88</v>
       </c>
       <c r="F273" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5946,12 +6562,14 @@
         <v>5</v>
       </c>
       <c r="D274" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E274" s="1">
         <v>5</v>
       </c>
       <c r="F274" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -5966,12 +6584,14 @@
         <v>30</v>
       </c>
       <c r="D275" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E275" s="1">
         <v>30</v>
       </c>
       <c r="F275" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -5986,12 +6606,14 @@
         <v>20</v>
       </c>
       <c r="D276" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E276" s="1">
         <v>20</v>
       </c>
       <c r="F276" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6006,12 +6628,14 @@
         <v>46</v>
       </c>
       <c r="D277" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E277" s="1">
         <v>46</v>
       </c>
       <c r="F277" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6025,14 +6649,16 @@
       <c r="C278" s="2">
         <v>73</v>
       </c>
-      <c r="D278" s="2">
-        <v>150</v>
+      <c r="D278" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E278" s="2">
         <v>73</v>
       </c>
-      <c r="F278" s="2">
-        <v>150</v>
+      <c r="F278" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6046,13 +6672,15 @@
         <v>88</v>
       </c>
       <c r="D279" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E279" s="1">
         <v>88</v>
       </c>
       <c r="F279" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,12 +6694,14 @@
         <v>5</v>
       </c>
       <c r="D280" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E280" s="1">
         <v>5</v>
       </c>
       <c r="F280" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6086,12 +6716,14 @@
         <v>30</v>
       </c>
       <c r="D281" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E281" s="1">
         <v>30</v>
       </c>
       <c r="F281" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6106,12 +6738,14 @@
         <v>20</v>
       </c>
       <c r="D282" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E282" s="1">
         <v>20</v>
       </c>
       <c r="F282" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6126,12 +6760,14 @@
         <v>46</v>
       </c>
       <c r="D283" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E283" s="1">
         <v>46</v>
       </c>
       <c r="F283" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6145,14 +6781,16 @@
       <c r="C284" s="2">
         <v>73</v>
       </c>
-      <c r="D284" s="2">
-        <v>150</v>
+      <c r="D284" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E284" s="2">
         <v>73</v>
       </c>
-      <c r="F284" s="2">
-        <v>150</v>
+      <c r="F284" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,13 +6804,15 @@
         <v>88</v>
       </c>
       <c r="D285" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E285" s="1">
         <v>88</v>
       </c>
       <c r="F285" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6186,12 +6826,14 @@
         <v>5</v>
       </c>
       <c r="D286" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E286" s="1">
         <v>5</v>
       </c>
       <c r="F286" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6206,12 +6848,14 @@
         <v>30</v>
       </c>
       <c r="D287" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E287" s="1">
         <v>30</v>
       </c>
       <c r="F287" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6226,12 +6870,14 @@
         <v>20</v>
       </c>
       <c r="D288" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E288" s="1">
         <v>20</v>
       </c>
       <c r="F288" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6246,12 +6892,14 @@
         <v>46</v>
       </c>
       <c r="D289" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E289" s="1">
         <v>46</v>
       </c>
       <c r="F289" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6265,14 +6913,16 @@
       <c r="C290" s="2">
         <v>73</v>
       </c>
-      <c r="D290" s="2">
-        <v>150</v>
+      <c r="D290" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E290" s="2">
         <v>73</v>
       </c>
-      <c r="F290" s="2">
-        <v>150</v>
+      <c r="F290" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6286,13 +6936,15 @@
         <v>88</v>
       </c>
       <c r="D291" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E291" s="1">
         <v>88</v>
       </c>
       <c r="F291" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6306,12 +6958,14 @@
         <v>5</v>
       </c>
       <c r="D292" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E292" s="1">
         <v>5</v>
       </c>
       <c r="F292" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6326,12 +6980,14 @@
         <v>30</v>
       </c>
       <c r="D293" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E293" s="1">
         <v>30</v>
       </c>
       <c r="F293" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6346,12 +7002,14 @@
         <v>20</v>
       </c>
       <c r="D294" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E294" s="1">
         <v>20</v>
       </c>
       <c r="F294" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6366,12 +7024,14 @@
         <v>46</v>
       </c>
       <c r="D295" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E295" s="1">
         <v>46</v>
       </c>
       <c r="F295" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6385,14 +7045,16 @@
       <c r="C296" s="2">
         <v>73</v>
       </c>
-      <c r="D296" s="2">
-        <v>150</v>
+      <c r="D296" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E296" s="2">
         <v>73</v>
       </c>
-      <c r="F296" s="2">
-        <v>150</v>
+      <c r="F296" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6406,13 +7068,15 @@
         <v>88</v>
       </c>
       <c r="D297" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E297" s="1">
         <v>88</v>
       </c>
       <c r="F297" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6426,12 +7090,14 @@
         <v>5</v>
       </c>
       <c r="D298" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E298" s="1">
         <v>5</v>
       </c>
       <c r="F298" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6446,12 +7112,14 @@
         <v>30</v>
       </c>
       <c r="D299" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E299" s="1">
         <v>30</v>
       </c>
       <c r="F299" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6466,12 +7134,14 @@
         <v>20</v>
       </c>
       <c r="D300" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E300" s="1">
         <v>20</v>
       </c>
       <c r="F300" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6486,12 +7156,14 @@
         <v>46</v>
       </c>
       <c r="D301" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E301" s="1">
         <v>46</v>
       </c>
       <c r="F301" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6505,14 +7177,16 @@
       <c r="C302" s="2">
         <v>73</v>
       </c>
-      <c r="D302" s="2">
-        <v>150</v>
+      <c r="D302" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E302" s="2">
         <v>73</v>
       </c>
-      <c r="F302" s="2">
-        <v>150</v>
+      <c r="F302" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6526,13 +7200,15 @@
         <v>88</v>
       </c>
       <c r="D303" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E303" s="1">
         <v>88</v>
       </c>
       <c r="F303" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -6546,12 +7222,14 @@
         <v>5</v>
       </c>
       <c r="D304" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E304" s="1">
         <v>5</v>
       </c>
       <c r="F304" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6566,12 +7244,14 @@
         <v>30</v>
       </c>
       <c r="D305" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E305" s="1">
         <v>30</v>
       </c>
       <c r="F305" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6586,12 +7266,14 @@
         <v>20</v>
       </c>
       <c r="D306" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E306" s="1">
         <v>20</v>
       </c>
       <c r="F306" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6606,12 +7288,14 @@
         <v>46</v>
       </c>
       <c r="D307" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E307" s="1">
         <v>46</v>
       </c>
       <c r="F307" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6625,14 +7309,16 @@
       <c r="C308" s="2">
         <v>73</v>
       </c>
-      <c r="D308" s="2">
-        <v>150</v>
+      <c r="D308" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E308" s="2">
         <v>73</v>
       </c>
-      <c r="F308" s="2">
-        <v>150</v>
+      <c r="F308" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -6646,13 +7332,15 @@
         <v>88</v>
       </c>
       <c r="D309" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E309" s="1">
         <v>88</v>
       </c>
       <c r="F309" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -6666,12 +7354,14 @@
         <v>5</v>
       </c>
       <c r="D310" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E310" s="1">
         <v>5</v>
       </c>
       <c r="F310" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6686,12 +7376,14 @@
         <v>30</v>
       </c>
       <c r="D311" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E311" s="1">
         <v>30</v>
       </c>
       <c r="F311" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6706,12 +7398,14 @@
         <v>20</v>
       </c>
       <c r="D312" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E312" s="1">
         <v>20</v>
       </c>
       <c r="F312" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6726,12 +7420,14 @@
         <v>46</v>
       </c>
       <c r="D313" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E313" s="1">
         <v>46</v>
       </c>
       <c r="F313" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6745,14 +7441,16 @@
       <c r="C314" s="2">
         <v>73</v>
       </c>
-      <c r="D314" s="2">
-        <v>150</v>
+      <c r="D314" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E314" s="2">
         <v>73</v>
       </c>
-      <c r="F314" s="2">
-        <v>150</v>
+      <c r="F314" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -6766,13 +7464,15 @@
         <v>88</v>
       </c>
       <c r="D315" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E315" s="1">
         <v>88</v>
       </c>
       <c r="F315" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6786,12 +7486,14 @@
         <v>5</v>
       </c>
       <c r="D316" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E316" s="1">
         <v>5</v>
       </c>
       <c r="F316" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6806,12 +7508,14 @@
         <v>30</v>
       </c>
       <c r="D317" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E317" s="1">
         <v>30</v>
       </c>
       <c r="F317" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6826,12 +7530,14 @@
         <v>20</v>
       </c>
       <c r="D318" s="1">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="E318" s="1">
         <v>20</v>
       </c>
       <c r="F318" s="1">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
@@ -6846,12 +7552,14 @@
         <v>46</v>
       </c>
       <c r="D319" s="1">
+        <f t="shared" si="8"/>
         <v>1250</v>
       </c>
       <c r="E319" s="1">
         <v>46</v>
       </c>
       <c r="F319" s="1">
+        <f t="shared" si="9"/>
         <v>1250</v>
       </c>
     </row>
@@ -6865,14 +7573,16 @@
       <c r="C320" s="2">
         <v>73</v>
       </c>
-      <c r="D320" s="2">
-        <v>150</v>
+      <c r="D320" s="1">
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E320" s="2">
         <v>73</v>
       </c>
-      <c r="F320" s="2">
-        <v>150</v>
+      <c r="F320" s="1">
+        <f t="shared" si="9"/>
+        <v>200</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6886,13 +7596,15 @@
         <v>88</v>
       </c>
       <c r="D321" s="1">
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E321" s="1">
         <v>88</v>
       </c>
       <c r="F321" s="1">
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -6906,12 +7618,14 @@
         <v>5</v>
       </c>
       <c r="D322" s="1">
+        <f t="shared" si="8"/>
         <v>10000000</v>
       </c>
       <c r="E322" s="1">
         <v>5</v>
       </c>
       <c r="F322" s="1">
+        <f t="shared" si="9"/>
         <v>10000000</v>
       </c>
     </row>
@@ -6926,12 +7640,26 @@
         <v>30</v>
       </c>
       <c r="D323" s="1">
+        <f t="shared" ref="D323:D386" si="10">IF($C323=5,10000000,
+IF($C323=30,1000,
+IF($C323=20,1000,
+IF($C323=46,1250,
+IF($C323=73,200,
+IF($C323=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
       <c r="E323" s="1">
         <v>30</v>
       </c>
       <c r="F323" s="1">
+        <f t="shared" ref="F323:F386" si="11">IF($C323=5,10000000,
+IF($C323=30,1000,
+IF($C323=20,1000,
+IF($C323=46,1250,
+IF($C323=73,200,
+IF($C323=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
     </row>
@@ -6946,12 +7674,14 @@
         <v>20</v>
       </c>
       <c r="D324" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E324" s="1">
         <v>20</v>
       </c>
       <c r="F324" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -6966,12 +7696,14 @@
         <v>46</v>
       </c>
       <c r="D325" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E325" s="1">
         <v>46</v>
       </c>
       <c r="F325" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -6985,14 +7717,16 @@
       <c r="C326" s="2">
         <v>73</v>
       </c>
-      <c r="D326" s="2">
-        <v>150</v>
+      <c r="D326" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E326" s="2">
         <v>73</v>
       </c>
-      <c r="F326" s="2">
-        <v>150</v>
+      <c r="F326" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7006,13 +7740,15 @@
         <v>88</v>
       </c>
       <c r="D327" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E327" s="1">
         <v>88</v>
       </c>
       <c r="F327" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7026,12 +7762,14 @@
         <v>5</v>
       </c>
       <c r="D328" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E328" s="1">
         <v>5</v>
       </c>
       <c r="F328" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7046,12 +7784,14 @@
         <v>30</v>
       </c>
       <c r="D329" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E329" s="1">
         <v>30</v>
       </c>
       <c r="F329" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7066,12 +7806,14 @@
         <v>20</v>
       </c>
       <c r="D330" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E330" s="1">
         <v>20</v>
       </c>
       <c r="F330" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7086,12 +7828,14 @@
         <v>46</v>
       </c>
       <c r="D331" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E331" s="1">
         <v>46</v>
       </c>
       <c r="F331" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7105,14 +7849,16 @@
       <c r="C332" s="2">
         <v>73</v>
       </c>
-      <c r="D332" s="2">
-        <v>150</v>
+      <c r="D332" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E332" s="2">
         <v>73</v>
       </c>
-      <c r="F332" s="2">
-        <v>150</v>
+      <c r="F332" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7126,13 +7872,15 @@
         <v>88</v>
       </c>
       <c r="D333" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E333" s="1">
         <v>88</v>
       </c>
       <c r="F333" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -7146,12 +7894,14 @@
         <v>5</v>
       </c>
       <c r="D334" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E334" s="1">
         <v>5</v>
       </c>
       <c r="F334" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7166,12 +7916,14 @@
         <v>30</v>
       </c>
       <c r="D335" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E335" s="1">
         <v>30</v>
       </c>
       <c r="F335" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7186,12 +7938,14 @@
         <v>20</v>
       </c>
       <c r="D336" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E336" s="1">
         <v>20</v>
       </c>
       <c r="F336" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7206,12 +7960,14 @@
         <v>46</v>
       </c>
       <c r="D337" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E337" s="1">
         <v>46</v>
       </c>
       <c r="F337" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7225,14 +7981,16 @@
       <c r="C338" s="2">
         <v>73</v>
       </c>
-      <c r="D338" s="2">
-        <v>150</v>
+      <c r="D338" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E338" s="2">
         <v>73</v>
       </c>
-      <c r="F338" s="2">
-        <v>150</v>
+      <c r="F338" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -7246,13 +8004,15 @@
         <v>88</v>
       </c>
       <c r="D339" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E339" s="1">
         <v>88</v>
       </c>
       <c r="F339" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -7266,12 +8026,14 @@
         <v>5</v>
       </c>
       <c r="D340" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E340" s="1">
         <v>5</v>
       </c>
       <c r="F340" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7286,12 +8048,14 @@
         <v>30</v>
       </c>
       <c r="D341" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E341" s="1">
         <v>30</v>
       </c>
       <c r="F341" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7306,12 +8070,14 @@
         <v>20</v>
       </c>
       <c r="D342" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E342" s="1">
         <v>20</v>
       </c>
       <c r="F342" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7326,12 +8092,14 @@
         <v>46</v>
       </c>
       <c r="D343" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E343" s="1">
         <v>46</v>
       </c>
       <c r="F343" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7345,14 +8113,16 @@
       <c r="C344" s="2">
         <v>73</v>
       </c>
-      <c r="D344" s="2">
-        <v>150</v>
+      <c r="D344" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E344" s="2">
         <v>73</v>
       </c>
-      <c r="F344" s="2">
-        <v>150</v>
+      <c r="F344" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -7366,13 +8136,15 @@
         <v>88</v>
       </c>
       <c r="D345" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E345" s="1">
         <v>88</v>
       </c>
       <c r="F345" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -7386,12 +8158,14 @@
         <v>5</v>
       </c>
       <c r="D346" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E346" s="1">
         <v>5</v>
       </c>
       <c r="F346" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7406,12 +8180,14 @@
         <v>30</v>
       </c>
       <c r="D347" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E347" s="1">
         <v>30</v>
       </c>
       <c r="F347" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7426,12 +8202,14 @@
         <v>20</v>
       </c>
       <c r="D348" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E348" s="1">
         <v>20</v>
       </c>
       <c r="F348" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7446,12 +8224,14 @@
         <v>46</v>
       </c>
       <c r="D349" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E349" s="1">
         <v>46</v>
       </c>
       <c r="F349" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7465,14 +8245,16 @@
       <c r="C350" s="2">
         <v>73</v>
       </c>
-      <c r="D350" s="2">
-        <v>150</v>
+      <c r="D350" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E350" s="2">
         <v>73</v>
       </c>
-      <c r="F350" s="2">
-        <v>150</v>
+      <c r="F350" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,13 +8268,15 @@
         <v>88</v>
       </c>
       <c r="D351" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E351" s="1">
         <v>88</v>
       </c>
       <c r="F351" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -7506,12 +8290,14 @@
         <v>5</v>
       </c>
       <c r="D352" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E352" s="1">
         <v>5</v>
       </c>
       <c r="F352" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7526,12 +8312,14 @@
         <v>30</v>
       </c>
       <c r="D353" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E353" s="1">
         <v>30</v>
       </c>
       <c r="F353" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7546,12 +8334,14 @@
         <v>20</v>
       </c>
       <c r="D354" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E354" s="1">
         <v>20</v>
       </c>
       <c r="F354" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7566,12 +8356,14 @@
         <v>46</v>
       </c>
       <c r="D355" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E355" s="1">
         <v>46</v>
       </c>
       <c r="F355" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7585,14 +8377,16 @@
       <c r="C356" s="2">
         <v>73</v>
       </c>
-      <c r="D356" s="2">
-        <v>150</v>
+      <c r="D356" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E356" s="2">
         <v>73</v>
       </c>
-      <c r="F356" s="2">
-        <v>150</v>
+      <c r="F356" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -7606,13 +8400,15 @@
         <v>88</v>
       </c>
       <c r="D357" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E357" s="1">
         <v>88</v>
       </c>
       <c r="F357" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -7626,12 +8422,14 @@
         <v>5</v>
       </c>
       <c r="D358" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E358" s="1">
         <v>5</v>
       </c>
       <c r="F358" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7646,12 +8444,14 @@
         <v>30</v>
       </c>
       <c r="D359" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E359" s="1">
         <v>30</v>
       </c>
       <c r="F359" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7666,12 +8466,14 @@
         <v>20</v>
       </c>
       <c r="D360" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E360" s="1">
         <v>20</v>
       </c>
       <c r="F360" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7686,12 +8488,14 @@
         <v>46</v>
       </c>
       <c r="D361" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E361" s="1">
         <v>46</v>
       </c>
       <c r="F361" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7705,14 +8509,16 @@
       <c r="C362" s="2">
         <v>73</v>
       </c>
-      <c r="D362" s="2">
-        <v>150</v>
+      <c r="D362" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E362" s="2">
         <v>73</v>
       </c>
-      <c r="F362" s="2">
-        <v>150</v>
+      <c r="F362" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -7726,13 +8532,15 @@
         <v>88</v>
       </c>
       <c r="D363" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E363" s="1">
         <v>88</v>
       </c>
       <c r="F363" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -7746,12 +8554,14 @@
         <v>5</v>
       </c>
       <c r="D364" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E364" s="1">
         <v>5</v>
       </c>
       <c r="F364" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7766,12 +8576,14 @@
         <v>30</v>
       </c>
       <c r="D365" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E365" s="1">
         <v>30</v>
       </c>
       <c r="F365" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7786,12 +8598,14 @@
         <v>20</v>
       </c>
       <c r="D366" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E366" s="1">
         <v>20</v>
       </c>
       <c r="F366" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7806,12 +8620,14 @@
         <v>46</v>
       </c>
       <c r="D367" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E367" s="1">
         <v>46</v>
       </c>
       <c r="F367" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7825,14 +8641,16 @@
       <c r="C368" s="2">
         <v>73</v>
       </c>
-      <c r="D368" s="2">
-        <v>150</v>
+      <c r="D368" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E368" s="2">
         <v>73</v>
       </c>
-      <c r="F368" s="2">
-        <v>150</v>
+      <c r="F368" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -7846,13 +8664,15 @@
         <v>88</v>
       </c>
       <c r="D369" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E369" s="1">
         <v>88</v>
       </c>
       <c r="F369" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -7866,12 +8686,14 @@
         <v>5</v>
       </c>
       <c r="D370" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E370" s="1">
         <v>5</v>
       </c>
       <c r="F370" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -7886,12 +8708,14 @@
         <v>30</v>
       </c>
       <c r="D371" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E371" s="1">
         <v>30</v>
       </c>
       <c r="F371" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7906,12 +8730,14 @@
         <v>20</v>
       </c>
       <c r="D372" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E372" s="1">
         <v>20</v>
       </c>
       <c r="F372" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -7926,12 +8752,14 @@
         <v>46</v>
       </c>
       <c r="D373" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E373" s="1">
         <v>46</v>
       </c>
       <c r="F373" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -7945,14 +8773,16 @@
       <c r="C374" s="2">
         <v>73</v>
       </c>
-      <c r="D374" s="2">
-        <v>150</v>
+      <c r="D374" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E374" s="2">
         <v>73</v>
       </c>
-      <c r="F374" s="2">
-        <v>150</v>
+      <c r="F374" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -7966,13 +8796,15 @@
         <v>88</v>
       </c>
       <c r="D375" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E375" s="1">
         <v>88</v>
       </c>
       <c r="F375" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -7986,12 +8818,14 @@
         <v>5</v>
       </c>
       <c r="D376" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E376" s="1">
         <v>5</v>
       </c>
       <c r="F376" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8006,12 +8840,14 @@
         <v>30</v>
       </c>
       <c r="D377" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E377" s="1">
         <v>30</v>
       </c>
       <c r="F377" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -8026,12 +8862,14 @@
         <v>20</v>
       </c>
       <c r="D378" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E378" s="1">
         <v>20</v>
       </c>
       <c r="F378" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -8046,12 +8884,14 @@
         <v>46</v>
       </c>
       <c r="D379" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E379" s="1">
         <v>46</v>
       </c>
       <c r="F379" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -8065,14 +8905,16 @@
       <c r="C380" s="2">
         <v>73</v>
       </c>
-      <c r="D380" s="2">
-        <v>150</v>
+      <c r="D380" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E380" s="2">
         <v>73</v>
       </c>
-      <c r="F380" s="2">
-        <v>150</v>
+      <c r="F380" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8086,13 +8928,15 @@
         <v>88</v>
       </c>
       <c r="D381" s="1">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E381" s="1">
         <v>88</v>
       </c>
       <c r="F381" s="1">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -8106,12 +8950,14 @@
         <v>5</v>
       </c>
       <c r="D382" s="1">
+        <f t="shared" si="10"/>
         <v>10000000</v>
       </c>
       <c r="E382" s="1">
         <v>5</v>
       </c>
       <c r="F382" s="1">
+        <f t="shared" si="11"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8126,12 +8972,14 @@
         <v>30</v>
       </c>
       <c r="D383" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E383" s="1">
         <v>30</v>
       </c>
       <c r="F383" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -8146,12 +8994,14 @@
         <v>20</v>
       </c>
       <c r="D384" s="1">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="E384" s="1">
         <v>20</v>
       </c>
       <c r="F384" s="1">
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
     </row>
@@ -8166,12 +9016,14 @@
         <v>46</v>
       </c>
       <c r="D385" s="1">
+        <f t="shared" si="10"/>
         <v>1250</v>
       </c>
       <c r="E385" s="1">
         <v>46</v>
       </c>
       <c r="F385" s="1">
+        <f t="shared" si="11"/>
         <v>1250</v>
       </c>
     </row>
@@ -8185,14 +9037,16 @@
       <c r="C386" s="2">
         <v>73</v>
       </c>
-      <c r="D386" s="2">
-        <v>150</v>
+      <c r="D386" s="1">
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E386" s="2">
         <v>73</v>
       </c>
-      <c r="F386" s="2">
-        <v>150</v>
+      <c r="F386" s="1">
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -8206,13 +9060,27 @@
         <v>88</v>
       </c>
       <c r="D387" s="1">
-        <v>75</v>
+        <f t="shared" ref="D387:D450" si="12">IF($C387=5,10000000,
+IF($C387=30,1000,
+IF($C387=20,1000,
+IF($C387=46,1250,
+IF($C387=73,200,
+IF($C387=88,100,
+0))))))</f>
+        <v>100</v>
       </c>
       <c r="E387" s="1">
         <v>88</v>
       </c>
       <c r="F387" s="1">
-        <v>75</v>
+        <f t="shared" ref="F387:F450" si="13">IF($C387=5,10000000,
+IF($C387=30,1000,
+IF($C387=20,1000,
+IF($C387=46,1250,
+IF($C387=73,200,
+IF($C387=88,100,
+0))))))</f>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8226,12 +9094,14 @@
         <v>5</v>
       </c>
       <c r="D388" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E388" s="1">
         <v>5</v>
       </c>
       <c r="F388" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8246,12 +9116,14 @@
         <v>30</v>
       </c>
       <c r="D389" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E389" s="1">
         <v>30</v>
       </c>
       <c r="F389" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8266,12 +9138,14 @@
         <v>20</v>
       </c>
       <c r="D390" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E390" s="1">
         <v>20</v>
       </c>
       <c r="F390" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8286,12 +9160,14 @@
         <v>46</v>
       </c>
       <c r="D391" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E391" s="1">
         <v>46</v>
       </c>
       <c r="F391" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -8305,14 +9181,16 @@
       <c r="C392" s="2">
         <v>73</v>
       </c>
-      <c r="D392" s="2">
-        <v>150</v>
+      <c r="D392" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E392" s="2">
         <v>73</v>
       </c>
-      <c r="F392" s="2">
-        <v>150</v>
+      <c r="F392" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -8326,13 +9204,15 @@
         <v>88</v>
       </c>
       <c r="D393" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E393" s="1">
         <v>88</v>
       </c>
       <c r="F393" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -8346,12 +9226,14 @@
         <v>5</v>
       </c>
       <c r="D394" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E394" s="1">
         <v>5</v>
       </c>
       <c r="F394" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8366,12 +9248,14 @@
         <v>30</v>
       </c>
       <c r="D395" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E395" s="1">
         <v>30</v>
       </c>
       <c r="F395" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8386,12 +9270,14 @@
         <v>20</v>
       </c>
       <c r="D396" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E396" s="1">
         <v>20</v>
       </c>
       <c r="F396" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8406,12 +9292,14 @@
         <v>46</v>
       </c>
       <c r="D397" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E397" s="1">
         <v>46</v>
       </c>
       <c r="F397" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -8425,14 +9313,16 @@
       <c r="C398" s="2">
         <v>73</v>
       </c>
-      <c r="D398" s="2">
-        <v>150</v>
+      <c r="D398" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E398" s="2">
         <v>73</v>
       </c>
-      <c r="F398" s="2">
-        <v>150</v>
+      <c r="F398" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -8446,13 +9336,15 @@
         <v>88</v>
       </c>
       <c r="D399" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E399" s="1">
         <v>88</v>
       </c>
       <c r="F399" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -8466,12 +9358,14 @@
         <v>5</v>
       </c>
       <c r="D400" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E400" s="1">
         <v>5</v>
       </c>
       <c r="F400" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8486,12 +9380,14 @@
         <v>30</v>
       </c>
       <c r="D401" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E401" s="1">
         <v>30</v>
       </c>
       <c r="F401" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8506,12 +9402,14 @@
         <v>20</v>
       </c>
       <c r="D402" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E402" s="1">
         <v>20</v>
       </c>
       <c r="F402" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8526,12 +9424,14 @@
         <v>46</v>
       </c>
       <c r="D403" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E403" s="1">
         <v>46</v>
       </c>
       <c r="F403" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -8545,14 +9445,16 @@
       <c r="C404" s="2">
         <v>73</v>
       </c>
-      <c r="D404" s="2">
-        <v>150</v>
+      <c r="D404" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E404" s="2">
         <v>73</v>
       </c>
-      <c r="F404" s="2">
-        <v>150</v>
+      <c r="F404" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -8566,13 +9468,15 @@
         <v>88</v>
       </c>
       <c r="D405" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E405" s="1">
         <v>88</v>
       </c>
       <c r="F405" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -8586,12 +9490,14 @@
         <v>5</v>
       </c>
       <c r="D406" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E406" s="1">
         <v>5</v>
       </c>
       <c r="F406" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8606,12 +9512,14 @@
         <v>30</v>
       </c>
       <c r="D407" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E407" s="1">
         <v>30</v>
       </c>
       <c r="F407" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8626,12 +9534,14 @@
         <v>20</v>
       </c>
       <c r="D408" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E408" s="1">
         <v>20</v>
       </c>
       <c r="F408" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8646,12 +9556,14 @@
         <v>46</v>
       </c>
       <c r="D409" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E409" s="1">
         <v>46</v>
       </c>
       <c r="F409" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -8665,14 +9577,16 @@
       <c r="C410" s="2">
         <v>73</v>
       </c>
-      <c r="D410" s="2">
-        <v>150</v>
+      <c r="D410" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E410" s="2">
         <v>73</v>
       </c>
-      <c r="F410" s="2">
-        <v>150</v>
+      <c r="F410" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -8686,13 +9600,15 @@
         <v>88</v>
       </c>
       <c r="D411" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E411" s="1">
         <v>88</v>
       </c>
       <c r="F411" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -8706,12 +9622,14 @@
         <v>5</v>
       </c>
       <c r="D412" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E412" s="1">
         <v>5</v>
       </c>
       <c r="F412" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8726,12 +9644,14 @@
         <v>30</v>
       </c>
       <c r="D413" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E413" s="1">
         <v>30</v>
       </c>
       <c r="F413" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8746,12 +9666,14 @@
         <v>20</v>
       </c>
       <c r="D414" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E414" s="1">
         <v>20</v>
       </c>
       <c r="F414" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8766,12 +9688,14 @@
         <v>46</v>
       </c>
       <c r="D415" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E415" s="1">
         <v>46</v>
       </c>
       <c r="F415" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -8785,14 +9709,16 @@
       <c r="C416" s="2">
         <v>73</v>
       </c>
-      <c r="D416" s="2">
-        <v>150</v>
+      <c r="D416" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E416" s="2">
         <v>73</v>
       </c>
-      <c r="F416" s="2">
-        <v>150</v>
+      <c r="F416" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -8806,13 +9732,15 @@
         <v>88</v>
       </c>
       <c r="D417" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E417" s="1">
         <v>88</v>
       </c>
       <c r="F417" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -8826,12 +9754,14 @@
         <v>5</v>
       </c>
       <c r="D418" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E418" s="1">
         <v>5</v>
       </c>
       <c r="F418" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8846,12 +9776,14 @@
         <v>30</v>
       </c>
       <c r="D419" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E419" s="1">
         <v>30</v>
       </c>
       <c r="F419" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8866,12 +9798,14 @@
         <v>20</v>
       </c>
       <c r="D420" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E420" s="1">
         <v>20</v>
       </c>
       <c r="F420" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8886,12 +9820,14 @@
         <v>46</v>
       </c>
       <c r="D421" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E421" s="1">
         <v>46</v>
       </c>
       <c r="F421" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -8905,14 +9841,16 @@
       <c r="C422" s="2">
         <v>73</v>
       </c>
-      <c r="D422" s="2">
-        <v>150</v>
+      <c r="D422" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E422" s="2">
         <v>73</v>
       </c>
-      <c r="F422" s="2">
-        <v>150</v>
+      <c r="F422" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -8926,13 +9864,15 @@
         <v>88</v>
       </c>
       <c r="D423" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E423" s="1">
         <v>88</v>
       </c>
       <c r="F423" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -8946,12 +9886,14 @@
         <v>5</v>
       </c>
       <c r="D424" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E424" s="1">
         <v>5</v>
       </c>
       <c r="F424" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -8966,12 +9908,14 @@
         <v>30</v>
       </c>
       <c r="D425" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E425" s="1">
         <v>30</v>
       </c>
       <c r="F425" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -8986,12 +9930,14 @@
         <v>20</v>
       </c>
       <c r="D426" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E426" s="1">
         <v>20</v>
       </c>
       <c r="F426" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9006,12 +9952,14 @@
         <v>46</v>
       </c>
       <c r="D427" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E427" s="1">
         <v>46</v>
       </c>
       <c r="F427" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -9025,14 +9973,16 @@
       <c r="C428" s="2">
         <v>73</v>
       </c>
-      <c r="D428" s="2">
-        <v>150</v>
+      <c r="D428" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E428" s="2">
         <v>73</v>
       </c>
-      <c r="F428" s="2">
-        <v>150</v>
+      <c r="F428" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -9046,13 +9996,15 @@
         <v>88</v>
       </c>
       <c r="D429" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E429" s="1">
         <v>88</v>
       </c>
       <c r="F429" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -9066,12 +10018,14 @@
         <v>5</v>
       </c>
       <c r="D430" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E430" s="1">
         <v>5</v>
       </c>
       <c r="F430" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9086,12 +10040,14 @@
         <v>30</v>
       </c>
       <c r="D431" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E431" s="1">
         <v>30</v>
       </c>
       <c r="F431" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9106,12 +10062,14 @@
         <v>20</v>
       </c>
       <c r="D432" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E432" s="1">
         <v>20</v>
       </c>
       <c r="F432" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9126,12 +10084,14 @@
         <v>46</v>
       </c>
       <c r="D433" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E433" s="1">
         <v>46</v>
       </c>
       <c r="F433" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -9145,14 +10105,16 @@
       <c r="C434" s="2">
         <v>73</v>
       </c>
-      <c r="D434" s="2">
-        <v>150</v>
+      <c r="D434" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E434" s="2">
         <v>73</v>
       </c>
-      <c r="F434" s="2">
-        <v>150</v>
+      <c r="F434" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -9166,13 +10128,15 @@
         <v>88</v>
       </c>
       <c r="D435" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E435" s="1">
         <v>88</v>
       </c>
       <c r="F435" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -9186,12 +10150,14 @@
         <v>5</v>
       </c>
       <c r="D436" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E436" s="1">
         <v>5</v>
       </c>
       <c r="F436" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9206,12 +10172,14 @@
         <v>30</v>
       </c>
       <c r="D437" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E437" s="1">
         <v>30</v>
       </c>
       <c r="F437" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9226,12 +10194,14 @@
         <v>20</v>
       </c>
       <c r="D438" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E438" s="1">
         <v>20</v>
       </c>
       <c r="F438" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9246,12 +10216,14 @@
         <v>46</v>
       </c>
       <c r="D439" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E439" s="1">
         <v>46</v>
       </c>
       <c r="F439" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -9265,14 +10237,16 @@
       <c r="C440" s="2">
         <v>73</v>
       </c>
-      <c r="D440" s="2">
-        <v>150</v>
+      <c r="D440" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E440" s="2">
         <v>73</v>
       </c>
-      <c r="F440" s="2">
-        <v>150</v>
+      <c r="F440" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -9286,13 +10260,15 @@
         <v>88</v>
       </c>
       <c r="D441" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E441" s="1">
         <v>88</v>
       </c>
       <c r="F441" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -9306,12 +10282,14 @@
         <v>5</v>
       </c>
       <c r="D442" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E442" s="1">
         <v>5</v>
       </c>
       <c r="F442" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9326,12 +10304,14 @@
         <v>30</v>
       </c>
       <c r="D443" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E443" s="1">
         <v>30</v>
       </c>
       <c r="F443" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9346,12 +10326,14 @@
         <v>20</v>
       </c>
       <c r="D444" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E444" s="1">
         <v>20</v>
       </c>
       <c r="F444" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9366,12 +10348,14 @@
         <v>46</v>
       </c>
       <c r="D445" s="1">
+        <f t="shared" si="12"/>
         <v>1250</v>
       </c>
       <c r="E445" s="1">
         <v>46</v>
       </c>
       <c r="F445" s="1">
+        <f t="shared" si="13"/>
         <v>1250</v>
       </c>
     </row>
@@ -9385,14 +10369,16 @@
       <c r="C446" s="2">
         <v>73</v>
       </c>
-      <c r="D446" s="2">
-        <v>150</v>
+      <c r="D446" s="1">
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E446" s="2">
         <v>73</v>
       </c>
-      <c r="F446" s="2">
-        <v>150</v>
+      <c r="F446" s="1">
+        <f t="shared" si="13"/>
+        <v>200</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -9406,13 +10392,15 @@
         <v>88</v>
       </c>
       <c r="D447" s="1">
-        <v>75</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E447" s="1">
         <v>88</v>
       </c>
       <c r="F447" s="1">
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -9426,12 +10414,14 @@
         <v>5</v>
       </c>
       <c r="D448" s="1">
+        <f t="shared" si="12"/>
         <v>10000000</v>
       </c>
       <c r="E448" s="1">
         <v>5</v>
       </c>
       <c r="F448" s="1">
+        <f t="shared" si="13"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9446,12 +10436,14 @@
         <v>30</v>
       </c>
       <c r="D449" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E449" s="1">
         <v>30</v>
       </c>
       <c r="F449" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9466,12 +10458,14 @@
         <v>20</v>
       </c>
       <c r="D450" s="1">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="E450" s="1">
         <v>20</v>
       </c>
       <c r="F450" s="1">
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
     </row>
@@ -9486,12 +10480,26 @@
         <v>46</v>
       </c>
       <c r="D451" s="1">
+        <f t="shared" ref="D451:D514" si="14">IF($C451=5,10000000,
+IF($C451=30,1000,
+IF($C451=20,1000,
+IF($C451=46,1250,
+IF($C451=73,200,
+IF($C451=88,100,
+0))))))</f>
         <v>1250</v>
       </c>
       <c r="E451" s="1">
         <v>46</v>
       </c>
       <c r="F451" s="1">
+        <f t="shared" ref="F451:F514" si="15">IF($C451=5,10000000,
+IF($C451=30,1000,
+IF($C451=20,1000,
+IF($C451=46,1250,
+IF($C451=73,200,
+IF($C451=88,100,
+0))))))</f>
         <v>1250</v>
       </c>
     </row>
@@ -9505,14 +10513,16 @@
       <c r="C452" s="2">
         <v>73</v>
       </c>
-      <c r="D452" s="2">
-        <v>150</v>
+      <c r="D452" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E452" s="2">
         <v>73</v>
       </c>
-      <c r="F452" s="2">
-        <v>150</v>
+      <c r="F452" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -9526,13 +10536,15 @@
         <v>88</v>
       </c>
       <c r="D453" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E453" s="1">
         <v>88</v>
       </c>
       <c r="F453" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -9546,12 +10558,14 @@
         <v>5</v>
       </c>
       <c r="D454" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E454" s="1">
         <v>5</v>
       </c>
       <c r="F454" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9566,12 +10580,14 @@
         <v>30</v>
       </c>
       <c r="D455" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E455" s="1">
         <v>30</v>
       </c>
       <c r="F455" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9586,12 +10602,14 @@
         <v>20</v>
       </c>
       <c r="D456" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E456" s="1">
         <v>20</v>
       </c>
       <c r="F456" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9606,12 +10624,14 @@
         <v>46</v>
       </c>
       <c r="D457" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E457" s="1">
         <v>46</v>
       </c>
       <c r="F457" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -9625,14 +10645,16 @@
       <c r="C458" s="2">
         <v>73</v>
       </c>
-      <c r="D458" s="2">
-        <v>150</v>
+      <c r="D458" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E458" s="2">
         <v>73</v>
       </c>
-      <c r="F458" s="2">
-        <v>150</v>
+      <c r="F458" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -9646,13 +10668,15 @@
         <v>88</v>
       </c>
       <c r="D459" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E459" s="1">
         <v>88</v>
       </c>
       <c r="F459" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -9666,12 +10690,14 @@
         <v>5</v>
       </c>
       <c r="D460" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E460" s="1">
         <v>5</v>
       </c>
       <c r="F460" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9686,12 +10712,14 @@
         <v>30</v>
       </c>
       <c r="D461" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E461" s="1">
         <v>30</v>
       </c>
       <c r="F461" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9706,12 +10734,14 @@
         <v>20</v>
       </c>
       <c r="D462" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E462" s="1">
         <v>20</v>
       </c>
       <c r="F462" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9726,12 +10756,14 @@
         <v>46</v>
       </c>
       <c r="D463" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E463" s="1">
         <v>46</v>
       </c>
       <c r="F463" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -9745,14 +10777,16 @@
       <c r="C464" s="2">
         <v>73</v>
       </c>
-      <c r="D464" s="2">
-        <v>150</v>
+      <c r="D464" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E464" s="2">
         <v>73</v>
       </c>
-      <c r="F464" s="2">
-        <v>150</v>
+      <c r="F464" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -9766,13 +10800,15 @@
         <v>88</v>
       </c>
       <c r="D465" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E465" s="1">
         <v>88</v>
       </c>
       <c r="F465" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -9786,12 +10822,14 @@
         <v>5</v>
       </c>
       <c r="D466" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E466" s="1">
         <v>5</v>
       </c>
       <c r="F466" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9806,12 +10844,14 @@
         <v>30</v>
       </c>
       <c r="D467" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E467" s="1">
         <v>30</v>
       </c>
       <c r="F467" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9826,12 +10866,14 @@
         <v>20</v>
       </c>
       <c r="D468" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E468" s="1">
         <v>20</v>
       </c>
       <c r="F468" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9846,12 +10888,14 @@
         <v>46</v>
       </c>
       <c r="D469" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E469" s="1">
         <v>46</v>
       </c>
       <c r="F469" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -9865,14 +10909,16 @@
       <c r="C470" s="2">
         <v>73</v>
       </c>
-      <c r="D470" s="2">
-        <v>150</v>
+      <c r="D470" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E470" s="2">
         <v>73</v>
       </c>
-      <c r="F470" s="2">
-        <v>150</v>
+      <c r="F470" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -9886,13 +10932,15 @@
         <v>88</v>
       </c>
       <c r="D471" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E471" s="1">
         <v>88</v>
       </c>
       <c r="F471" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -9906,12 +10954,14 @@
         <v>5</v>
       </c>
       <c r="D472" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E472" s="1">
         <v>5</v>
       </c>
       <c r="F472" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -9926,12 +10976,14 @@
         <v>30</v>
       </c>
       <c r="D473" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E473" s="1">
         <v>30</v>
       </c>
       <c r="F473" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9946,12 +10998,14 @@
         <v>20</v>
       </c>
       <c r="D474" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E474" s="1">
         <v>20</v>
       </c>
       <c r="F474" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -9966,12 +11020,14 @@
         <v>46</v>
       </c>
       <c r="D475" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E475" s="1">
         <v>46</v>
       </c>
       <c r="F475" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -9985,14 +11041,16 @@
       <c r="C476" s="2">
         <v>73</v>
       </c>
-      <c r="D476" s="2">
-        <v>150</v>
+      <c r="D476" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E476" s="2">
         <v>73</v>
       </c>
-      <c r="F476" s="2">
-        <v>150</v>
+      <c r="F476" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -10006,13 +11064,15 @@
         <v>88</v>
       </c>
       <c r="D477" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E477" s="1">
         <v>88</v>
       </c>
       <c r="F477" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -10026,12 +11086,14 @@
         <v>5</v>
       </c>
       <c r="D478" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E478" s="1">
         <v>5</v>
       </c>
       <c r="F478" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10046,12 +11108,14 @@
         <v>30</v>
       </c>
       <c r="D479" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E479" s="1">
         <v>30</v>
       </c>
       <c r="F479" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10066,12 +11130,14 @@
         <v>20</v>
       </c>
       <c r="D480" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E480" s="1">
         <v>20</v>
       </c>
       <c r="F480" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10086,12 +11152,14 @@
         <v>46</v>
       </c>
       <c r="D481" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E481" s="1">
         <v>46</v>
       </c>
       <c r="F481" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -10105,14 +11173,16 @@
       <c r="C482" s="2">
         <v>73</v>
       </c>
-      <c r="D482" s="2">
-        <v>150</v>
+      <c r="D482" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E482" s="2">
         <v>73</v>
       </c>
-      <c r="F482" s="2">
-        <v>150</v>
+      <c r="F482" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -10126,13 +11196,15 @@
         <v>88</v>
       </c>
       <c r="D483" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E483" s="1">
         <v>88</v>
       </c>
       <c r="F483" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -10146,12 +11218,14 @@
         <v>5</v>
       </c>
       <c r="D484" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E484" s="1">
         <v>5</v>
       </c>
       <c r="F484" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10166,12 +11240,14 @@
         <v>30</v>
       </c>
       <c r="D485" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E485" s="1">
         <v>30</v>
       </c>
       <c r="F485" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10186,12 +11262,14 @@
         <v>20</v>
       </c>
       <c r="D486" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E486" s="1">
         <v>20</v>
       </c>
       <c r="F486" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10206,12 +11284,14 @@
         <v>46</v>
       </c>
       <c r="D487" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E487" s="1">
         <v>46</v>
       </c>
       <c r="F487" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -10225,14 +11305,16 @@
       <c r="C488" s="2">
         <v>73</v>
       </c>
-      <c r="D488" s="2">
-        <v>150</v>
+      <c r="D488" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E488" s="2">
         <v>73</v>
       </c>
-      <c r="F488" s="2">
-        <v>150</v>
+      <c r="F488" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10246,13 +11328,15 @@
         <v>88</v>
       </c>
       <c r="D489" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E489" s="1">
         <v>88</v>
       </c>
       <c r="F489" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10266,12 +11350,14 @@
         <v>5</v>
       </c>
       <c r="D490" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E490" s="1">
         <v>5</v>
       </c>
       <c r="F490" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10286,12 +11372,14 @@
         <v>30</v>
       </c>
       <c r="D491" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E491" s="1">
         <v>30</v>
       </c>
       <c r="F491" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10306,12 +11394,14 @@
         <v>20</v>
       </c>
       <c r="D492" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E492" s="1">
         <v>20</v>
       </c>
       <c r="F492" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10326,12 +11416,14 @@
         <v>46</v>
       </c>
       <c r="D493" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E493" s="1">
         <v>46</v>
       </c>
       <c r="F493" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -10345,14 +11437,16 @@
       <c r="C494" s="2">
         <v>73</v>
       </c>
-      <c r="D494" s="2">
-        <v>150</v>
+      <c r="D494" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E494" s="2">
         <v>73</v>
       </c>
-      <c r="F494" s="2">
-        <v>150</v>
+      <c r="F494" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -10366,13 +11460,15 @@
         <v>88</v>
       </c>
       <c r="D495" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E495" s="1">
         <v>88</v>
       </c>
       <c r="F495" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -10386,12 +11482,14 @@
         <v>5</v>
       </c>
       <c r="D496" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E496" s="1">
         <v>5</v>
       </c>
       <c r="F496" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10406,12 +11504,14 @@
         <v>30</v>
       </c>
       <c r="D497" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E497" s="1">
         <v>30</v>
       </c>
       <c r="F497" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10426,12 +11526,14 @@
         <v>20</v>
       </c>
       <c r="D498" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E498" s="1">
         <v>20</v>
       </c>
       <c r="F498" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10446,12 +11548,14 @@
         <v>46</v>
       </c>
       <c r="D499" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E499" s="1">
         <v>46</v>
       </c>
       <c r="F499" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -10465,14 +11569,16 @@
       <c r="C500" s="2">
         <v>73</v>
       </c>
-      <c r="D500" s="2">
-        <v>150</v>
+      <c r="D500" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E500" s="2">
         <v>73</v>
       </c>
-      <c r="F500" s="2">
-        <v>150</v>
+      <c r="F500" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -10486,13 +11592,15 @@
         <v>88</v>
       </c>
       <c r="D501" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E501" s="1">
         <v>88</v>
       </c>
       <c r="F501" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -10506,12 +11614,14 @@
         <v>5</v>
       </c>
       <c r="D502" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E502" s="1">
         <v>5</v>
       </c>
       <c r="F502" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10526,12 +11636,14 @@
         <v>30</v>
       </c>
       <c r="D503" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E503" s="1">
         <v>30</v>
       </c>
       <c r="F503" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10546,12 +11658,14 @@
         <v>20</v>
       </c>
       <c r="D504" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E504" s="1">
         <v>20</v>
       </c>
       <c r="F504" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10566,12 +11680,14 @@
         <v>46</v>
       </c>
       <c r="D505" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E505" s="1">
         <v>46</v>
       </c>
       <c r="F505" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -10585,14 +11701,16 @@
       <c r="C506" s="2">
         <v>73</v>
       </c>
-      <c r="D506" s="2">
-        <v>150</v>
+      <c r="D506" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E506" s="2">
         <v>73</v>
       </c>
-      <c r="F506" s="2">
-        <v>150</v>
+      <c r="F506" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -10606,13 +11724,15 @@
         <v>88</v>
       </c>
       <c r="D507" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E507" s="1">
         <v>88</v>
       </c>
       <c r="F507" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -10626,12 +11746,14 @@
         <v>5</v>
       </c>
       <c r="D508" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E508" s="1">
         <v>5</v>
       </c>
       <c r="F508" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10646,12 +11768,14 @@
         <v>30</v>
       </c>
       <c r="D509" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E509" s="1">
         <v>30</v>
       </c>
       <c r="F509" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10666,12 +11790,14 @@
         <v>20</v>
       </c>
       <c r="D510" s="1">
+        <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="E510" s="1">
         <v>20</v>
       </c>
       <c r="F510" s="1">
+        <f t="shared" si="15"/>
         <v>1000</v>
       </c>
     </row>
@@ -10686,12 +11812,14 @@
         <v>46</v>
       </c>
       <c r="D511" s="1">
+        <f t="shared" si="14"/>
         <v>1250</v>
       </c>
       <c r="E511" s="1">
         <v>46</v>
       </c>
       <c r="F511" s="1">
+        <f t="shared" si="15"/>
         <v>1250</v>
       </c>
     </row>
@@ -10705,14 +11833,16 @@
       <c r="C512" s="2">
         <v>73</v>
       </c>
-      <c r="D512" s="2">
-        <v>150</v>
+      <c r="D512" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E512" s="2">
         <v>73</v>
       </c>
-      <c r="F512" s="2">
-        <v>150</v>
+      <c r="F512" s="1">
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -10726,13 +11856,15 @@
         <v>88</v>
       </c>
       <c r="D513" s="1">
-        <v>75</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E513" s="1">
         <v>88</v>
       </c>
       <c r="F513" s="1">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -10746,12 +11878,14 @@
         <v>5</v>
       </c>
       <c r="D514" s="1">
+        <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
       <c r="E514" s="1">
         <v>5</v>
       </c>
       <c r="F514" s="1">
+        <f t="shared" si="15"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10766,12 +11900,26 @@
         <v>30</v>
       </c>
       <c r="D515" s="1">
+        <f t="shared" ref="D515:D578" si="16">IF($C515=5,10000000,
+IF($C515=30,1000,
+IF($C515=20,1000,
+IF($C515=46,1250,
+IF($C515=73,200,
+IF($C515=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
       <c r="E515" s="1">
         <v>30</v>
       </c>
       <c r="F515" s="1">
+        <f t="shared" ref="F515:F578" si="17">IF($C515=5,10000000,
+IF($C515=30,1000,
+IF($C515=20,1000,
+IF($C515=46,1250,
+IF($C515=73,200,
+IF($C515=88,100,
+0))))))</f>
         <v>1000</v>
       </c>
     </row>
@@ -10786,12 +11934,14 @@
         <v>20</v>
       </c>
       <c r="D516" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E516" s="1">
         <v>20</v>
       </c>
       <c r="F516" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -10806,12 +11956,14 @@
         <v>46</v>
       </c>
       <c r="D517" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E517" s="1">
         <v>46</v>
       </c>
       <c r="F517" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -10825,14 +11977,16 @@
       <c r="C518" s="2">
         <v>73</v>
       </c>
-      <c r="D518" s="2">
-        <v>150</v>
+      <c r="D518" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E518" s="2">
         <v>73</v>
       </c>
-      <c r="F518" s="2">
-        <v>150</v>
+      <c r="F518" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -10846,13 +12000,15 @@
         <v>88</v>
       </c>
       <c r="D519" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E519" s="1">
         <v>88</v>
       </c>
       <c r="F519" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -10866,12 +12022,14 @@
         <v>5</v>
       </c>
       <c r="D520" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E520" s="1">
         <v>5</v>
       </c>
       <c r="F520" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -10886,12 +12044,14 @@
         <v>30</v>
       </c>
       <c r="D521" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E521" s="1">
         <v>30</v>
       </c>
       <c r="F521" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -10906,12 +12066,14 @@
         <v>20</v>
       </c>
       <c r="D522" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E522" s="1">
         <v>20</v>
       </c>
       <c r="F522" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -10926,12 +12088,14 @@
         <v>46</v>
       </c>
       <c r="D523" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E523" s="1">
         <v>46</v>
       </c>
       <c r="F523" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -10945,14 +12109,16 @@
       <c r="C524" s="2">
         <v>73</v>
       </c>
-      <c r="D524" s="2">
-        <v>150</v>
+      <c r="D524" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E524" s="2">
         <v>73</v>
       </c>
-      <c r="F524" s="2">
-        <v>150</v>
+      <c r="F524" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -10966,13 +12132,15 @@
         <v>88</v>
       </c>
       <c r="D525" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E525" s="1">
         <v>88</v>
       </c>
       <c r="F525" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -10986,12 +12154,14 @@
         <v>5</v>
       </c>
       <c r="D526" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E526" s="1">
         <v>5</v>
       </c>
       <c r="F526" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11006,12 +12176,14 @@
         <v>30</v>
       </c>
       <c r="D527" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E527" s="1">
         <v>30</v>
       </c>
       <c r="F527" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11026,12 +12198,14 @@
         <v>20</v>
       </c>
       <c r="D528" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E528" s="1">
         <v>20</v>
       </c>
       <c r="F528" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11046,12 +12220,14 @@
         <v>46</v>
       </c>
       <c r="D529" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E529" s="1">
         <v>46</v>
       </c>
       <c r="F529" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11065,14 +12241,16 @@
       <c r="C530" s="2">
         <v>73</v>
       </c>
-      <c r="D530" s="2">
-        <v>150</v>
+      <c r="D530" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E530" s="2">
         <v>73</v>
       </c>
-      <c r="F530" s="2">
-        <v>150</v>
+      <c r="F530" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -11086,13 +12264,15 @@
         <v>88</v>
       </c>
       <c r="D531" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E531" s="1">
         <v>88</v>
       </c>
       <c r="F531" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -11106,12 +12286,14 @@
         <v>5</v>
       </c>
       <c r="D532" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E532" s="1">
         <v>5</v>
       </c>
       <c r="F532" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11126,12 +12308,14 @@
         <v>30</v>
       </c>
       <c r="D533" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E533" s="1">
         <v>30</v>
       </c>
       <c r="F533" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11146,12 +12330,14 @@
         <v>20</v>
       </c>
       <c r="D534" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E534" s="1">
         <v>20</v>
       </c>
       <c r="F534" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11166,12 +12352,14 @@
         <v>46</v>
       </c>
       <c r="D535" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E535" s="1">
         <v>46</v>
       </c>
       <c r="F535" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11185,14 +12373,16 @@
       <c r="C536" s="2">
         <v>73</v>
       </c>
-      <c r="D536" s="2">
-        <v>150</v>
+      <c r="D536" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E536" s="2">
         <v>73</v>
       </c>
-      <c r="F536" s="2">
-        <v>150</v>
+      <c r="F536" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -11206,13 +12396,15 @@
         <v>88</v>
       </c>
       <c r="D537" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E537" s="1">
         <v>88</v>
       </c>
       <c r="F537" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -11226,12 +12418,14 @@
         <v>5</v>
       </c>
       <c r="D538" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E538" s="1">
         <v>5</v>
       </c>
       <c r="F538" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11246,12 +12440,14 @@
         <v>30</v>
       </c>
       <c r="D539" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E539" s="1">
         <v>30</v>
       </c>
       <c r="F539" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11266,12 +12462,14 @@
         <v>20</v>
       </c>
       <c r="D540" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E540" s="1">
         <v>20</v>
       </c>
       <c r="F540" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11286,12 +12484,14 @@
         <v>46</v>
       </c>
       <c r="D541" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E541" s="1">
         <v>46</v>
       </c>
       <c r="F541" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11305,14 +12505,16 @@
       <c r="C542" s="2">
         <v>73</v>
       </c>
-      <c r="D542" s="2">
-        <v>150</v>
+      <c r="D542" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E542" s="2">
         <v>73</v>
       </c>
-      <c r="F542" s="2">
-        <v>150</v>
+      <c r="F542" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -11326,13 +12528,15 @@
         <v>88</v>
       </c>
       <c r="D543" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E543" s="1">
         <v>88</v>
       </c>
       <c r="F543" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -11346,12 +12550,14 @@
         <v>5</v>
       </c>
       <c r="D544" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E544" s="1">
         <v>5</v>
       </c>
       <c r="F544" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11366,12 +12572,14 @@
         <v>30</v>
       </c>
       <c r="D545" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E545" s="1">
         <v>30</v>
       </c>
       <c r="F545" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11386,12 +12594,14 @@
         <v>20</v>
       </c>
       <c r="D546" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E546" s="1">
         <v>20</v>
       </c>
       <c r="F546" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11406,12 +12616,14 @@
         <v>46</v>
       </c>
       <c r="D547" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E547" s="1">
         <v>46</v>
       </c>
       <c r="F547" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11425,14 +12637,16 @@
       <c r="C548" s="2">
         <v>73</v>
       </c>
-      <c r="D548" s="2">
-        <v>150</v>
+      <c r="D548" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E548" s="2">
         <v>73</v>
       </c>
-      <c r="F548" s="2">
-        <v>150</v>
+      <c r="F548" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -11446,13 +12660,15 @@
         <v>88</v>
       </c>
       <c r="D549" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E549" s="1">
         <v>88</v>
       </c>
       <c r="F549" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -11466,12 +12682,14 @@
         <v>5</v>
       </c>
       <c r="D550" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E550" s="1">
         <v>5</v>
       </c>
       <c r="F550" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11486,12 +12704,14 @@
         <v>30</v>
       </c>
       <c r="D551" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E551" s="1">
         <v>30</v>
       </c>
       <c r="F551" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11506,12 +12726,14 @@
         <v>20</v>
       </c>
       <c r="D552" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E552" s="1">
         <v>20</v>
       </c>
       <c r="F552" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11526,12 +12748,14 @@
         <v>46</v>
       </c>
       <c r="D553" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E553" s="1">
         <v>46</v>
       </c>
       <c r="F553" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11545,14 +12769,16 @@
       <c r="C554" s="2">
         <v>73</v>
       </c>
-      <c r="D554" s="2">
-        <v>150</v>
+      <c r="D554" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E554" s="2">
         <v>73</v>
       </c>
-      <c r="F554" s="2">
-        <v>150</v>
+      <c r="F554" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -11566,13 +12792,15 @@
         <v>88</v>
       </c>
       <c r="D555" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E555" s="1">
         <v>88</v>
       </c>
       <c r="F555" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -11586,12 +12814,14 @@
         <v>5</v>
       </c>
       <c r="D556" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E556" s="1">
         <v>5</v>
       </c>
       <c r="F556" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11606,12 +12836,14 @@
         <v>30</v>
       </c>
       <c r="D557" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E557" s="1">
         <v>30</v>
       </c>
       <c r="F557" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11626,12 +12858,14 @@
         <v>20</v>
       </c>
       <c r="D558" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E558" s="1">
         <v>20</v>
       </c>
       <c r="F558" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11646,12 +12880,14 @@
         <v>46</v>
       </c>
       <c r="D559" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E559" s="1">
         <v>46</v>
       </c>
       <c r="F559" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11665,14 +12901,16 @@
       <c r="C560" s="2">
         <v>73</v>
       </c>
-      <c r="D560" s="2">
-        <v>150</v>
+      <c r="D560" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E560" s="2">
         <v>73</v>
       </c>
-      <c r="F560" s="2">
-        <v>150</v>
+      <c r="F560" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -11686,13 +12924,15 @@
         <v>88</v>
       </c>
       <c r="D561" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E561" s="1">
         <v>88</v>
       </c>
       <c r="F561" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
@@ -11706,12 +12946,14 @@
         <v>5</v>
       </c>
       <c r="D562" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E562" s="1">
         <v>5</v>
       </c>
       <c r="F562" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11726,12 +12968,14 @@
         <v>30</v>
       </c>
       <c r="D563" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E563" s="1">
         <v>30</v>
       </c>
       <c r="F563" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11746,12 +12990,14 @@
         <v>20</v>
       </c>
       <c r="D564" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E564" s="1">
         <v>20</v>
       </c>
       <c r="F564" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11766,12 +13012,14 @@
         <v>46</v>
       </c>
       <c r="D565" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E565" s="1">
         <v>46</v>
       </c>
       <c r="F565" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11785,14 +13033,16 @@
       <c r="C566" s="2">
         <v>73</v>
       </c>
-      <c r="D566" s="2">
-        <v>150</v>
+      <c r="D566" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E566" s="2">
         <v>73</v>
       </c>
-      <c r="F566" s="2">
-        <v>150</v>
+      <c r="F566" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
@@ -11806,13 +13056,15 @@
         <v>88</v>
       </c>
       <c r="D567" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E567" s="1">
         <v>88</v>
       </c>
       <c r="F567" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
@@ -11826,12 +13078,14 @@
         <v>5</v>
       </c>
       <c r="D568" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E568" s="1">
         <v>5</v>
       </c>
       <c r="F568" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11846,12 +13100,14 @@
         <v>30</v>
       </c>
       <c r="D569" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E569" s="1">
         <v>30</v>
       </c>
       <c r="F569" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11866,12 +13122,14 @@
         <v>20</v>
       </c>
       <c r="D570" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E570" s="1">
         <v>20</v>
       </c>
       <c r="F570" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11886,12 +13144,14 @@
         <v>46</v>
       </c>
       <c r="D571" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E571" s="1">
         <v>46</v>
       </c>
       <c r="F571" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -11905,14 +13165,16 @@
       <c r="C572" s="2">
         <v>73</v>
       </c>
-      <c r="D572" s="2">
-        <v>150</v>
+      <c r="D572" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E572" s="2">
         <v>73</v>
       </c>
-      <c r="F572" s="2">
-        <v>150</v>
+      <c r="F572" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.3">
@@ -11926,13 +13188,15 @@
         <v>88</v>
       </c>
       <c r="D573" s="1">
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>100</v>
       </c>
       <c r="E573" s="1">
         <v>88</v>
       </c>
       <c r="F573" s="1">
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
@@ -11946,12 +13210,14 @@
         <v>5</v>
       </c>
       <c r="D574" s="1">
+        <f t="shared" si="16"/>
         <v>10000000</v>
       </c>
       <c r="E574" s="1">
         <v>5</v>
       </c>
       <c r="F574" s="1">
+        <f t="shared" si="17"/>
         <v>10000000</v>
       </c>
     </row>
@@ -11966,12 +13232,14 @@
         <v>30</v>
       </c>
       <c r="D575" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E575" s="1">
         <v>30</v>
       </c>
       <c r="F575" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -11986,12 +13254,14 @@
         <v>20</v>
       </c>
       <c r="D576" s="1">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
       <c r="E576" s="1">
         <v>20</v>
       </c>
       <c r="F576" s="1">
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
     </row>
@@ -12006,12 +13276,14 @@
         <v>46</v>
       </c>
       <c r="D577" s="1">
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="E577" s="1">
         <v>46</v>
       </c>
       <c r="F577" s="1">
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
     </row>
@@ -12025,14 +13297,16 @@
       <c r="C578" s="2">
         <v>73</v>
       </c>
-      <c r="D578" s="2">
-        <v>150</v>
+      <c r="D578" s="1">
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="E578" s="2">
         <v>73</v>
       </c>
-      <c r="F578" s="2">
-        <v>150</v>
+      <c r="F578" s="1">
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.3">
@@ -12046,13 +13320,27 @@
         <v>88</v>
       </c>
       <c r="D579" s="1">
-        <v>75</v>
+        <f t="shared" ref="D579:D587" si="18">IF($C579=5,10000000,
+IF($C579=30,1000,
+IF($C579=20,1000,
+IF($C579=46,1250,
+IF($C579=73,200,
+IF($C579=88,100,
+0))))))</f>
+        <v>100</v>
       </c>
       <c r="E579" s="1">
         <v>88</v>
       </c>
       <c r="F579" s="1">
-        <v>75</v>
+        <f t="shared" ref="F579:F587" si="19">IF($C579=5,10000000,
+IF($C579=30,1000,
+IF($C579=20,1000,
+IF($C579=46,1250,
+IF($C579=73,200,
+IF($C579=88,100,
+0))))))</f>
+        <v>100</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
@@ -12066,12 +13354,14 @@
         <v>5</v>
       </c>
       <c r="D580" s="1">
+        <f t="shared" si="18"/>
         <v>10000000</v>
       </c>
       <c r="E580" s="1">
         <v>5</v>
       </c>
       <c r="F580" s="1">
+        <f t="shared" si="19"/>
         <v>10000000</v>
       </c>
     </row>
@@ -12086,12 +13376,14 @@
         <v>30</v>
       </c>
       <c r="D581" s="1">
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="E581" s="1">
         <v>30</v>
       </c>
       <c r="F581" s="1">
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
     </row>
@@ -12106,12 +13398,14 @@
         <v>20</v>
       </c>
       <c r="D582" s="1">
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="E582" s="1">
         <v>20</v>
       </c>
       <c r="F582" s="1">
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
     </row>
@@ -12126,12 +13420,14 @@
         <v>46</v>
       </c>
       <c r="D583" s="1">
+        <f t="shared" si="18"/>
         <v>1250</v>
       </c>
       <c r="E583" s="1">
         <v>46</v>
       </c>
       <c r="F583" s="1">
+        <f t="shared" si="19"/>
         <v>1250</v>
       </c>
     </row>
@@ -12145,14 +13441,16 @@
       <c r="C584" s="2">
         <v>73</v>
       </c>
-      <c r="D584" s="2">
-        <v>150</v>
+      <c r="D584" s="1">
+        <f t="shared" si="18"/>
+        <v>200</v>
       </c>
       <c r="E584" s="2">
         <v>73</v>
       </c>
-      <c r="F584" s="2">
-        <v>150</v>
+      <c r="F584" s="1">
+        <f t="shared" si="19"/>
+        <v>200</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
@@ -12166,13 +13464,15 @@
         <v>88</v>
       </c>
       <c r="D585" s="1">
-        <v>75</v>
+        <f t="shared" si="18"/>
+        <v>100</v>
       </c>
       <c r="E585" s="1">
         <v>88</v>
       </c>
       <c r="F585" s="1">
-        <v>75</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
@@ -12186,12 +13486,14 @@
         <v>5</v>
       </c>
       <c r="D586" s="1">
+        <f t="shared" si="18"/>
         <v>10000000</v>
       </c>
       <c r="E586" s="1">
         <v>5</v>
       </c>
       <c r="F586" s="1">
+        <f t="shared" si="19"/>
         <v>10000000</v>
       </c>
     </row>
@@ -12206,12 +13508,14 @@
         <v>30</v>
       </c>
       <c r="D587" s="1">
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="E587" s="1">
         <v>30</v>
       </c>
       <c r="F587" s="1">
+        <f t="shared" si="19"/>
         <v>1000</v>
       </c>
     </row>
